--- a/CRM/src/main/resources/ninza crm data .xlsx
+++ b/CRM/src/main/resources/ninza crm data .xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20130" windowHeight="8520" firstSheet="1"/>
+    <workbookView windowWidth="15270" windowHeight="2580" firstSheet="1"/>
   </bookViews>
   <sheets>
     <sheet name="campaign" sheetId="1" r:id="rId1"/>
@@ -12,6 +12,7 @@
     <sheet name="product" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <oleSize ref="A1:G10"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="39">
   <si>
     <t>campaignName</t>
   </si>
@@ -55,6 +56,15 @@
     <t>open</t>
   </si>
   <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>20-10-2025</t>
+  </si>
+  <si>
+    <t>public</t>
+  </si>
+  <si>
     <t>user id campaign</t>
   </si>
   <si>
@@ -134,9 +144,6 @@
   </si>
   <si>
     <t>VID_002</t>
-  </si>
-  <si>
-    <t>10</t>
   </si>
   <si>
     <t>700</t>
@@ -767,11 +774,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" quotePrefix="1"/>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="49">
@@ -781,7 +791,7 @@
     <cellStyle name="Percent" xfId="3" builtinId="5"/>
     <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
     <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
-    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
+    <cellStyle name="Link" xfId="6" builtinId="8"/>
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
     <cellStyle name="Note" xfId="8" builtinId="10"/>
     <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
@@ -1095,7 +1105,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="5"/>
@@ -1135,17 +1145,17 @@
       <c r="B2" t="s">
         <v>7</v>
       </c>
-      <c r="C2">
-        <v>5</v>
-      </c>
-      <c r="D2" s="3">
-        <v>45950</v>
-      </c>
-      <c r="E2">
+      <c r="C2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
         <v>10</v>
       </c>
       <c r="F2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -1173,60 +1183,60 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="H1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="I1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>21</v>
+        <v>23</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>24</v>
       </c>
       <c r="E2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="F2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="G2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -1252,36 +1262,36 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/CRM/src/main/resources/ninza crm data .xlsx
+++ b/CRM/src/main/resources/ninza crm data .xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19890" windowHeight="8220" firstSheet="1" activeTab="3"/>
+    <workbookView windowWidth="15270" windowHeight="2580" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="campaign" sheetId="1" r:id="rId1"/>
@@ -13,6 +13,7 @@
     <sheet name="contact" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <oleSize ref="A1:H2"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -134,7 +135,7 @@
     <t>ratings</t>
   </si>
   <si>
-    <t>Lead</t>
+    <t>Shopping</t>
   </si>
   <si>
     <t>Qspider</t>
@@ -894,11 +895,10 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -915,7 +915,7 @@
     <cellStyle name="Percent" xfId="3" builtinId="5"/>
     <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
     <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
-    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
+    <cellStyle name="Link" xfId="6" builtinId="8"/>
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
     <cellStyle name="Note" xfId="8" builtinId="10"/>
     <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
@@ -1243,10 +1243,10 @@
   </cols>
   <sheetData>
     <row r="1" ht="18.75" spans="1:6">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
@@ -1269,10 +1269,10 @@
       <c r="B2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="9" t="s">
         <v>9</v>
       </c>
       <c r="E2" t="s">
@@ -1293,8 +1293,8 @@
   <sheetPr/>
   <dimension ref="A1:V2"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="P7" sqref="P7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="1"/>
@@ -1395,13 +1395,13 @@
       <c r="D2" t="s">
         <v>37</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="G2" s="10" t="s">
         <v>40</v>
       </c>
       <c r="H2" s="2" t="s">
@@ -1413,7 +1413,7 @@
       <c r="J2" t="s">
         <v>43</v>
       </c>
-      <c r="K2" s="11" t="s">
+      <c r="K2" s="10" t="s">
         <v>44</v>
       </c>
       <c r="L2" t="s">
@@ -1428,10 +1428,10 @@
       <c r="O2" t="s">
         <v>48</v>
       </c>
-      <c r="P2" s="11" t="s">
+      <c r="P2" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="Q2" s="4" t="s">
+      <c r="Q2" s="3" t="s">
         <v>50</v>
       </c>
       <c r="R2" t="s">
@@ -1443,10 +1443,10 @@
       <c r="T2" t="s">
         <v>53</v>
       </c>
-      <c r="U2" s="11" t="s">
+      <c r="U2" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="V2" s="11" t="s">
+      <c r="V2" s="10" t="s">
         <v>55</v>
       </c>
     </row>
@@ -1503,10 +1503,10 @@
       <c r="C2" t="s">
         <v>63</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="10" t="s">
         <v>64</v>
       </c>
     </row>
@@ -1521,7 +1521,7 @@
   <sheetPr/>
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
@@ -1570,13 +1570,13 @@
       <c r="C2" t="s">
         <v>74</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="10" t="s">
         <v>75</v>
       </c>
       <c r="E2" t="s">
         <v>76</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="10" t="s">
         <v>77</v>
       </c>
       <c r="G2" s="1" t="s">

--- a/CRM/src/main/resources/ninza crm data .xlsx
+++ b/CRM/src/main/resources/ninza crm data .xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="15270" windowHeight="2580" firstSheet="1" activeTab="1"/>
+    <workbookView windowWidth="15270" windowHeight="2580" firstSheet="1"/>
   </bookViews>
   <sheets>
     <sheet name="campaign" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="89">
   <si>
     <t>campaignName</t>
   </si>
@@ -67,6 +67,36 @@
   </si>
   <si>
     <t>user id campaign</t>
+  </si>
+  <si>
+    <t>Protest</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>17-11-2025</t>
+  </si>
+  <si>
+    <t>NGO</t>
+  </si>
+  <si>
+    <t>Protest against govt</t>
+  </si>
+  <si>
+    <t>Job Fair</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>11-12-2026</t>
+  </si>
+  <si>
+    <t>Colleges</t>
+  </si>
+  <si>
+    <t>Job for Freshers</t>
   </si>
   <si>
     <t>leadName</t>
@@ -895,9 +925,8 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1226,13 +1255,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="3" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="18.7142857142857" customWidth="1"/>
     <col min="2" max="2" width="19.2857142857143" customWidth="1"/>
@@ -1243,10 +1272,10 @@
   </cols>
   <sheetData>
     <row r="1" ht="18.75" spans="1:6">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
@@ -1269,10 +1298,10 @@
       <c r="B2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="8" t="s">
         <v>9</v>
       </c>
       <c r="E2" t="s">
@@ -1280,6 +1309,46 @@
       </c>
       <c r="F2" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -1293,7 +1362,7 @@
   <sheetPr/>
   <dimension ref="A1:V2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -1316,138 +1385,138 @@
   <sheetData>
     <row r="1" spans="1:22">
       <c r="A1" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="B1" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C1" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="D1" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E1" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="F1" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="G1" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="H1" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="I1" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="J1" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="K1" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="L1" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="M1" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="N1" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="O1" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="P1" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="Q1" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="R1" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="S1" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="T1" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="U1" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="V1" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:22">
       <c r="A2" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="B2" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="C2" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="D2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="G2" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>42</v>
+        <v>47</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>52</v>
       </c>
       <c r="J2" t="s">
-        <v>43</v>
-      </c>
-      <c r="K2" s="10" t="s">
-        <v>44</v>
+        <v>53</v>
+      </c>
+      <c r="K2" s="9" t="s">
+        <v>54</v>
       </c>
       <c r="L2" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="M2" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="N2" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="O2" t="s">
-        <v>48</v>
-      </c>
-      <c r="P2" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q2" s="3" t="s">
-        <v>50</v>
+        <v>58</v>
+      </c>
+      <c r="P2" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>60</v>
       </c>
       <c r="R2" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="S2" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="T2" t="s">
-        <v>53</v>
-      </c>
-      <c r="U2" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="V2" s="10" t="s">
-        <v>55</v>
+        <v>63</v>
+      </c>
+      <c r="U2" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="V2" s="9" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -1478,36 +1547,36 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="B1" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="C1" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="D1" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="E1" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="B2" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="C2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D2" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="D2" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="10" t="s">
-        <v>64</v>
+      <c r="E2" s="9" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -1536,51 +1605,51 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="B1" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="C1" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="D1" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="E1" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="F1" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="G1" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="H1" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="B2" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="C2" t="s">
-        <v>74</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>75</v>
+        <v>84</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>85</v>
       </c>
       <c r="E2" t="s">
-        <v>76</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>77</v>
+        <v>86</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>87</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>

--- a/CRM/src/main/resources/ninza crm data .xlsx
+++ b/CRM/src/main/resources/ninza crm data .xlsx
@@ -4,13 +4,14 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="15270" windowHeight="2580" firstSheet="1"/>
+    <workbookView windowWidth="15270" windowHeight="2580" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="campaign" sheetId="1" r:id="rId1"/>
     <sheet name="lead" sheetId="2" r:id="rId2"/>
     <sheet name="product" sheetId="3" r:id="rId3"/>
     <sheet name="contact" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <oleSize ref="A1:H2"/>
@@ -1257,7 +1258,7 @@
   <sheetPr/>
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
@@ -1659,4 +1660,20 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/CRM/src/main/resources/ninza crm data .xlsx
+++ b/CRM/src/main/resources/ninza crm data .xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="793" uniqueCount="114">
   <si>
     <t>campaignName</t>
   </si>
@@ -299,6 +299,81 @@
   </si>
   <si>
     <t>shaaa@gmail.com</t>
+  </si>
+  <si>
+    <t>CAM15648</t>
+  </si>
+  <si>
+    <t>Campaign_22027</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t></t>
+  </si>
+  <si>
+    <t>CAM15647</t>
+  </si>
+  <si>
+    <t>Campaign_27530</t>
+  </si>
+  <si>
+    <t>CAM15646</t>
+  </si>
+  <si>
+    <t>Campaign_67305</t>
+  </si>
+  <si>
+    <t>CAM15645</t>
+  </si>
+  <si>
+    <t>Campaign_</t>
+  </si>
+  <si>
+    <t>CAM15643</t>
+  </si>
+  <si>
+    <t>Campaign_22429</t>
+  </si>
+  <si>
+    <t>CAM15642</t>
+  </si>
+  <si>
+    <t>Campaign_37022</t>
+  </si>
+  <si>
+    <t>CAM15641</t>
+  </si>
+  <si>
+    <t>FaceBook</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>2025-10-24</t>
+  </si>
+  <si>
+    <t>CAM15640</t>
+  </si>
+  <si>
+    <t>CAM15639</t>
+  </si>
+  <si>
+    <t>Campaign_30820</t>
+  </si>
+  <si>
+    <t>CAM15638</t>
+  </si>
+  <si>
+    <t>AI Sales</t>
   </si>
 </sst>
 </file>
@@ -926,7 +1001,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6" applyAlignment="1"/>
@@ -1264,12 +1339,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="3" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="18.7142857142857" customWidth="1"/>
-    <col min="2" max="2" width="19.2857142857143" customWidth="1"/>
-    <col min="3" max="3" width="15.1428571428571" customWidth="1"/>
-    <col min="4" max="4" width="26" customWidth="1"/>
-    <col min="5" max="5" width="16.4285714285714" customWidth="1"/>
-    <col min="6" max="6" width="17.2857142857143" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="18.7142857142857" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="19.2857142857143" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="15.1428571428571" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="26.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="16.4285714285714" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="17.2857142857143" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.75" spans="1:6">
@@ -1369,19 +1444,19 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="2" width="12.5714285714286" customWidth="1"/>
-    <col min="3" max="3" width="14.8571428571429" customWidth="1"/>
-    <col min="4" max="6" width="15" customWidth="1"/>
-    <col min="7" max="7" width="13.8571428571429" customWidth="1"/>
-    <col min="8" max="8" width="28.1428571428571" customWidth="1"/>
-    <col min="9" max="9" width="21.7142857142857" customWidth="1"/>
-    <col min="10" max="12" width="12.7142857142857" customWidth="1"/>
-    <col min="13" max="13" width="21.5714285714286" customWidth="1"/>
-    <col min="14" max="18" width="12.7142857142857" customWidth="1"/>
-    <col min="19" max="19" width="19.8571428571429" customWidth="1"/>
-    <col min="20" max="20" width="20.2857142857143" customWidth="1"/>
-    <col min="21" max="21" width="14.4285714285714" customWidth="1"/>
-    <col min="22" max="22" width="12" customWidth="1"/>
+    <col min="1" max="2" customWidth="true" width="12.5714285714286" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="14.8571428571429" collapsed="true"/>
+    <col min="4" max="6" customWidth="true" width="15.0" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="13.8571428571429" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="28.1428571428571" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="21.7142857142857" collapsed="true"/>
+    <col min="10" max="12" customWidth="true" width="12.7142857142857" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="21.5714285714286" collapsed="true"/>
+    <col min="14" max="18" customWidth="true" width="12.7142857142857" collapsed="true"/>
+    <col min="19" max="19" customWidth="true" width="19.8571428571429" collapsed="true"/>
+    <col min="20" max="20" customWidth="true" width="20.2857142857143" collapsed="true"/>
+    <col min="21" max="21" customWidth="true" width="14.4285714285714" collapsed="true"/>
+    <col min="22" max="22" customWidth="true" width="12.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22">
@@ -1542,8 +1617,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="9.71428571428571" customWidth="1"/>
-    <col min="2" max="2" width="10.2857142857143" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="9.71428571428571" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="10.2857142857143" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -1597,11 +1672,11 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="14.2857142857143" customWidth="1"/>
-    <col min="3" max="4" width="12.7142857142857" customWidth="1"/>
-    <col min="5" max="5" width="14" customWidth="1"/>
-    <col min="6" max="6" width="11.1428571428571" customWidth="1"/>
-    <col min="7" max="7" width="18.5714285714286" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="14.2857142857143" collapsed="true"/>
+    <col min="3" max="4" customWidth="true" width="12.7142857142857" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="11.1428571428571" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="18.5714285714286" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -1665,14 +1740,2135 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A2:BR11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F2" t="s">
+        <v>91</v>
+      </c>
+      <c r="G2" t="s">
+        <v>93</v>
+      </c>
+      <c r="H2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I2" t="s">
+        <v>95</v>
+      </c>
+      <c r="J2" t="s">
+        <v>91</v>
+      </c>
+      <c r="K2" t="s">
+        <v>91</v>
+      </c>
+      <c r="L2" t="s">
+        <v>92</v>
+      </c>
+      <c r="M2" t="s">
+        <v>91</v>
+      </c>
+      <c r="N2" t="s">
+        <v>93</v>
+      </c>
+      <c r="O2" t="s">
+        <v>96</v>
+      </c>
+      <c r="P2" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>91</v>
+      </c>
+      <c r="R2" t="s">
+        <v>91</v>
+      </c>
+      <c r="S2" t="s">
+        <v>92</v>
+      </c>
+      <c r="T2" t="s">
+        <v>91</v>
+      </c>
+      <c r="U2" t="s">
+        <v>93</v>
+      </c>
+      <c r="V2" t="s">
+        <v>98</v>
+      </c>
+      <c r="W2" t="s">
+        <v>99</v>
+      </c>
+      <c r="X2" t="s">
+        <v>91</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>91</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>92</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>91</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>93</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>100</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>101</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>91</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>91</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>92</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>91</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>93</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>102</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>103</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>91</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>91</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>92</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>91</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>93</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>104</v>
+      </c>
+      <c r="AR2" t="s">
+        <v>105</v>
+      </c>
+      <c r="AS2" t="s">
+        <v>106</v>
+      </c>
+      <c r="AT2" t="s">
+        <v>106</v>
+      </c>
+      <c r="AU2" t="s">
+        <v>107</v>
+      </c>
+      <c r="AV2" t="s">
+        <v>108</v>
+      </c>
+      <c r="AW2" t="s">
+        <v>93</v>
+      </c>
+      <c r="AX2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AY2" t="s">
+        <v>105</v>
+      </c>
+      <c r="AZ2" t="s">
+        <v>106</v>
+      </c>
+      <c r="BA2" t="s">
+        <v>106</v>
+      </c>
+      <c r="BB2" t="s">
+        <v>107</v>
+      </c>
+      <c r="BC2" t="s">
+        <v>108</v>
+      </c>
+      <c r="BD2" t="s">
+        <v>93</v>
+      </c>
+      <c r="BE2" t="s">
+        <v>110</v>
+      </c>
+      <c r="BF2" t="s">
+        <v>111</v>
+      </c>
+      <c r="BG2" t="s">
+        <v>91</v>
+      </c>
+      <c r="BH2" t="s">
+        <v>91</v>
+      </c>
+      <c r="BI2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BJ2" t="s">
+        <v>91</v>
+      </c>
+      <c r="BK2" t="s">
+        <v>93</v>
+      </c>
+      <c r="BL2" t="s">
+        <v>112</v>
+      </c>
+      <c r="BM2" t="s">
+        <v>113</v>
+      </c>
+      <c r="BN2" t="s">
+        <v>106</v>
+      </c>
+      <c r="BO2" t="s">
+        <v>106</v>
+      </c>
+      <c r="BP2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BQ2" t="s">
+        <v>108</v>
+      </c>
+      <c r="BR2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D3" t="s">
+        <v>91</v>
+      </c>
+      <c r="E3" t="s">
+        <v>92</v>
+      </c>
+      <c r="F3" t="s">
+        <v>91</v>
+      </c>
+      <c r="G3" t="s">
+        <v>93</v>
+      </c>
+      <c r="H3" t="s">
+        <v>94</v>
+      </c>
+      <c r="I3" t="s">
+        <v>95</v>
+      </c>
+      <c r="J3" t="s">
+        <v>91</v>
+      </c>
+      <c r="K3" t="s">
+        <v>91</v>
+      </c>
+      <c r="L3" t="s">
+        <v>92</v>
+      </c>
+      <c r="M3" t="s">
+        <v>91</v>
+      </c>
+      <c r="N3" t="s">
+        <v>93</v>
+      </c>
+      <c r="O3" t="s">
+        <v>96</v>
+      </c>
+      <c r="P3" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>91</v>
+      </c>
+      <c r="R3" t="s">
+        <v>91</v>
+      </c>
+      <c r="S3" t="s">
+        <v>92</v>
+      </c>
+      <c r="T3" t="s">
+        <v>91</v>
+      </c>
+      <c r="U3" t="s">
+        <v>93</v>
+      </c>
+      <c r="V3" t="s">
+        <v>98</v>
+      </c>
+      <c r="W3" t="s">
+        <v>99</v>
+      </c>
+      <c r="X3" t="s">
+        <v>91</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>91</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>92</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>91</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>93</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>100</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>101</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>91</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>91</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>92</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>91</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>93</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>102</v>
+      </c>
+      <c r="AK3" t="s">
+        <v>103</v>
+      </c>
+      <c r="AL3" t="s">
+        <v>91</v>
+      </c>
+      <c r="AM3" t="s">
+        <v>91</v>
+      </c>
+      <c r="AN3" t="s">
+        <v>92</v>
+      </c>
+      <c r="AO3" t="s">
+        <v>91</v>
+      </c>
+      <c r="AP3" t="s">
+        <v>93</v>
+      </c>
+      <c r="AQ3" t="s">
+        <v>104</v>
+      </c>
+      <c r="AR3" t="s">
+        <v>105</v>
+      </c>
+      <c r="AS3" t="s">
+        <v>106</v>
+      </c>
+      <c r="AT3" t="s">
+        <v>106</v>
+      </c>
+      <c r="AU3" t="s">
+        <v>107</v>
+      </c>
+      <c r="AV3" t="s">
+        <v>108</v>
+      </c>
+      <c r="AW3" t="s">
+        <v>93</v>
+      </c>
+      <c r="AX3" t="s">
+        <v>109</v>
+      </c>
+      <c r="AY3" t="s">
+        <v>105</v>
+      </c>
+      <c r="AZ3" t="s">
+        <v>106</v>
+      </c>
+      <c r="BA3" t="s">
+        <v>106</v>
+      </c>
+      <c r="BB3" t="s">
+        <v>107</v>
+      </c>
+      <c r="BC3" t="s">
+        <v>108</v>
+      </c>
+      <c r="BD3" t="s">
+        <v>93</v>
+      </c>
+      <c r="BE3" t="s">
+        <v>110</v>
+      </c>
+      <c r="BF3" t="s">
+        <v>111</v>
+      </c>
+      <c r="BG3" t="s">
+        <v>91</v>
+      </c>
+      <c r="BH3" t="s">
+        <v>91</v>
+      </c>
+      <c r="BI3" t="s">
+        <v>92</v>
+      </c>
+      <c r="BJ3" t="s">
+        <v>91</v>
+      </c>
+      <c r="BK3" t="s">
+        <v>93</v>
+      </c>
+      <c r="BL3" t="s">
+        <v>112</v>
+      </c>
+      <c r="BM3" t="s">
+        <v>113</v>
+      </c>
+      <c r="BN3" t="s">
+        <v>106</v>
+      </c>
+      <c r="BO3" t="s">
+        <v>106</v>
+      </c>
+      <c r="BP3" t="s">
+        <v>92</v>
+      </c>
+      <c r="BQ3" t="s">
+        <v>108</v>
+      </c>
+      <c r="BR3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D4" t="s">
+        <v>91</v>
+      </c>
+      <c r="E4" t="s">
+        <v>92</v>
+      </c>
+      <c r="F4" t="s">
+        <v>91</v>
+      </c>
+      <c r="G4" t="s">
+        <v>93</v>
+      </c>
+      <c r="H4" t="s">
+        <v>94</v>
+      </c>
+      <c r="I4" t="s">
+        <v>95</v>
+      </c>
+      <c r="J4" t="s">
+        <v>91</v>
+      </c>
+      <c r="K4" t="s">
+        <v>91</v>
+      </c>
+      <c r="L4" t="s">
+        <v>92</v>
+      </c>
+      <c r="M4" t="s">
+        <v>91</v>
+      </c>
+      <c r="N4" t="s">
+        <v>93</v>
+      </c>
+      <c r="O4" t="s">
+        <v>96</v>
+      </c>
+      <c r="P4" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>91</v>
+      </c>
+      <c r="R4" t="s">
+        <v>91</v>
+      </c>
+      <c r="S4" t="s">
+        <v>92</v>
+      </c>
+      <c r="T4" t="s">
+        <v>91</v>
+      </c>
+      <c r="U4" t="s">
+        <v>93</v>
+      </c>
+      <c r="V4" t="s">
+        <v>98</v>
+      </c>
+      <c r="W4" t="s">
+        <v>99</v>
+      </c>
+      <c r="X4" t="s">
+        <v>91</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>91</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>92</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>91</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>93</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>100</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>101</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>91</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>91</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>92</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>91</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>93</v>
+      </c>
+      <c r="AJ4" t="s">
+        <v>102</v>
+      </c>
+      <c r="AK4" t="s">
+        <v>103</v>
+      </c>
+      <c r="AL4" t="s">
+        <v>91</v>
+      </c>
+      <c r="AM4" t="s">
+        <v>91</v>
+      </c>
+      <c r="AN4" t="s">
+        <v>92</v>
+      </c>
+      <c r="AO4" t="s">
+        <v>91</v>
+      </c>
+      <c r="AP4" t="s">
+        <v>93</v>
+      </c>
+      <c r="AQ4" t="s">
+        <v>104</v>
+      </c>
+      <c r="AR4" t="s">
+        <v>105</v>
+      </c>
+      <c r="AS4" t="s">
+        <v>106</v>
+      </c>
+      <c r="AT4" t="s">
+        <v>106</v>
+      </c>
+      <c r="AU4" t="s">
+        <v>107</v>
+      </c>
+      <c r="AV4" t="s">
+        <v>108</v>
+      </c>
+      <c r="AW4" t="s">
+        <v>93</v>
+      </c>
+      <c r="AX4" t="s">
+        <v>109</v>
+      </c>
+      <c r="AY4" t="s">
+        <v>105</v>
+      </c>
+      <c r="AZ4" t="s">
+        <v>106</v>
+      </c>
+      <c r="BA4" t="s">
+        <v>106</v>
+      </c>
+      <c r="BB4" t="s">
+        <v>107</v>
+      </c>
+      <c r="BC4" t="s">
+        <v>108</v>
+      </c>
+      <c r="BD4" t="s">
+        <v>93</v>
+      </c>
+      <c r="BE4" t="s">
+        <v>110</v>
+      </c>
+      <c r="BF4" t="s">
+        <v>111</v>
+      </c>
+      <c r="BG4" t="s">
+        <v>91</v>
+      </c>
+      <c r="BH4" t="s">
+        <v>91</v>
+      </c>
+      <c r="BI4" t="s">
+        <v>92</v>
+      </c>
+      <c r="BJ4" t="s">
+        <v>91</v>
+      </c>
+      <c r="BK4" t="s">
+        <v>93</v>
+      </c>
+      <c r="BL4" t="s">
+        <v>112</v>
+      </c>
+      <c r="BM4" t="s">
+        <v>113</v>
+      </c>
+      <c r="BN4" t="s">
+        <v>106</v>
+      </c>
+      <c r="BO4" t="s">
+        <v>106</v>
+      </c>
+      <c r="BP4" t="s">
+        <v>92</v>
+      </c>
+      <c r="BQ4" t="s">
+        <v>108</v>
+      </c>
+      <c r="BR4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>89</v>
+      </c>
+      <c r="B5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C5" t="s">
+        <v>91</v>
+      </c>
+      <c r="D5" t="s">
+        <v>91</v>
+      </c>
+      <c r="E5" t="s">
+        <v>92</v>
+      </c>
+      <c r="F5" t="s">
+        <v>91</v>
+      </c>
+      <c r="G5" t="s">
+        <v>93</v>
+      </c>
+      <c r="H5" t="s">
+        <v>94</v>
+      </c>
+      <c r="I5" t="s">
+        <v>95</v>
+      </c>
+      <c r="J5" t="s">
+        <v>91</v>
+      </c>
+      <c r="K5" t="s">
+        <v>91</v>
+      </c>
+      <c r="L5" t="s">
+        <v>92</v>
+      </c>
+      <c r="M5" t="s">
+        <v>91</v>
+      </c>
+      <c r="N5" t="s">
+        <v>93</v>
+      </c>
+      <c r="O5" t="s">
+        <v>96</v>
+      </c>
+      <c r="P5" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>91</v>
+      </c>
+      <c r="R5" t="s">
+        <v>91</v>
+      </c>
+      <c r="S5" t="s">
+        <v>92</v>
+      </c>
+      <c r="T5" t="s">
+        <v>91</v>
+      </c>
+      <c r="U5" t="s">
+        <v>93</v>
+      </c>
+      <c r="V5" t="s">
+        <v>98</v>
+      </c>
+      <c r="W5" t="s">
+        <v>99</v>
+      </c>
+      <c r="X5" t="s">
+        <v>91</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>91</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>92</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>91</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>93</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>100</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>101</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>91</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>91</v>
+      </c>
+      <c r="AG5" t="s">
+        <v>92</v>
+      </c>
+      <c r="AH5" t="s">
+        <v>91</v>
+      </c>
+      <c r="AI5" t="s">
+        <v>93</v>
+      </c>
+      <c r="AJ5" t="s">
+        <v>102</v>
+      </c>
+      <c r="AK5" t="s">
+        <v>103</v>
+      </c>
+      <c r="AL5" t="s">
+        <v>91</v>
+      </c>
+      <c r="AM5" t="s">
+        <v>91</v>
+      </c>
+      <c r="AN5" t="s">
+        <v>92</v>
+      </c>
+      <c r="AO5" t="s">
+        <v>91</v>
+      </c>
+      <c r="AP5" t="s">
+        <v>93</v>
+      </c>
+      <c r="AQ5" t="s">
+        <v>104</v>
+      </c>
+      <c r="AR5" t="s">
+        <v>105</v>
+      </c>
+      <c r="AS5" t="s">
+        <v>106</v>
+      </c>
+      <c r="AT5" t="s">
+        <v>106</v>
+      </c>
+      <c r="AU5" t="s">
+        <v>107</v>
+      </c>
+      <c r="AV5" t="s">
+        <v>108</v>
+      </c>
+      <c r="AW5" t="s">
+        <v>93</v>
+      </c>
+      <c r="AX5" t="s">
+        <v>109</v>
+      </c>
+      <c r="AY5" t="s">
+        <v>105</v>
+      </c>
+      <c r="AZ5" t="s">
+        <v>106</v>
+      </c>
+      <c r="BA5" t="s">
+        <v>106</v>
+      </c>
+      <c r="BB5" t="s">
+        <v>107</v>
+      </c>
+      <c r="BC5" t="s">
+        <v>108</v>
+      </c>
+      <c r="BD5" t="s">
+        <v>93</v>
+      </c>
+      <c r="BE5" t="s">
+        <v>110</v>
+      </c>
+      <c r="BF5" t="s">
+        <v>111</v>
+      </c>
+      <c r="BG5" t="s">
+        <v>91</v>
+      </c>
+      <c r="BH5" t="s">
+        <v>91</v>
+      </c>
+      <c r="BI5" t="s">
+        <v>92</v>
+      </c>
+      <c r="BJ5" t="s">
+        <v>91</v>
+      </c>
+      <c r="BK5" t="s">
+        <v>93</v>
+      </c>
+      <c r="BL5" t="s">
+        <v>112</v>
+      </c>
+      <c r="BM5" t="s">
+        <v>113</v>
+      </c>
+      <c r="BN5" t="s">
+        <v>106</v>
+      </c>
+      <c r="BO5" t="s">
+        <v>106</v>
+      </c>
+      <c r="BP5" t="s">
+        <v>92</v>
+      </c>
+      <c r="BQ5" t="s">
+        <v>108</v>
+      </c>
+      <c r="BR5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>89</v>
+      </c>
+      <c r="B6" t="s">
+        <v>90</v>
+      </c>
+      <c r="C6" t="s">
+        <v>91</v>
+      </c>
+      <c r="D6" t="s">
+        <v>91</v>
+      </c>
+      <c r="E6" t="s">
+        <v>92</v>
+      </c>
+      <c r="F6" t="s">
+        <v>91</v>
+      </c>
+      <c r="G6" t="s">
+        <v>93</v>
+      </c>
+      <c r="H6" t="s">
+        <v>94</v>
+      </c>
+      <c r="I6" t="s">
+        <v>95</v>
+      </c>
+      <c r="J6" t="s">
+        <v>91</v>
+      </c>
+      <c r="K6" t="s">
+        <v>91</v>
+      </c>
+      <c r="L6" t="s">
+        <v>92</v>
+      </c>
+      <c r="M6" t="s">
+        <v>91</v>
+      </c>
+      <c r="N6" t="s">
+        <v>93</v>
+      </c>
+      <c r="O6" t="s">
+        <v>96</v>
+      </c>
+      <c r="P6" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>91</v>
+      </c>
+      <c r="R6" t="s">
+        <v>91</v>
+      </c>
+      <c r="S6" t="s">
+        <v>92</v>
+      </c>
+      <c r="T6" t="s">
+        <v>91</v>
+      </c>
+      <c r="U6" t="s">
+        <v>93</v>
+      </c>
+      <c r="V6" t="s">
+        <v>98</v>
+      </c>
+      <c r="W6" t="s">
+        <v>99</v>
+      </c>
+      <c r="X6" t="s">
+        <v>91</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>91</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>92</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>91</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>93</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>100</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>101</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>91</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>91</v>
+      </c>
+      <c r="AG6" t="s">
+        <v>92</v>
+      </c>
+      <c r="AH6" t="s">
+        <v>91</v>
+      </c>
+      <c r="AI6" t="s">
+        <v>93</v>
+      </c>
+      <c r="AJ6" t="s">
+        <v>102</v>
+      </c>
+      <c r="AK6" t="s">
+        <v>103</v>
+      </c>
+      <c r="AL6" t="s">
+        <v>91</v>
+      </c>
+      <c r="AM6" t="s">
+        <v>91</v>
+      </c>
+      <c r="AN6" t="s">
+        <v>92</v>
+      </c>
+      <c r="AO6" t="s">
+        <v>91</v>
+      </c>
+      <c r="AP6" t="s">
+        <v>93</v>
+      </c>
+      <c r="AQ6" t="s">
+        <v>104</v>
+      </c>
+      <c r="AR6" t="s">
+        <v>105</v>
+      </c>
+      <c r="AS6" t="s">
+        <v>106</v>
+      </c>
+      <c r="AT6" t="s">
+        <v>106</v>
+      </c>
+      <c r="AU6" t="s">
+        <v>107</v>
+      </c>
+      <c r="AV6" t="s">
+        <v>108</v>
+      </c>
+      <c r="AW6" t="s">
+        <v>93</v>
+      </c>
+      <c r="AX6" t="s">
+        <v>109</v>
+      </c>
+      <c r="AY6" t="s">
+        <v>105</v>
+      </c>
+      <c r="AZ6" t="s">
+        <v>106</v>
+      </c>
+      <c r="BA6" t="s">
+        <v>106</v>
+      </c>
+      <c r="BB6" t="s">
+        <v>107</v>
+      </c>
+      <c r="BC6" t="s">
+        <v>108</v>
+      </c>
+      <c r="BD6" t="s">
+        <v>93</v>
+      </c>
+      <c r="BE6" t="s">
+        <v>110</v>
+      </c>
+      <c r="BF6" t="s">
+        <v>111</v>
+      </c>
+      <c r="BG6" t="s">
+        <v>91</v>
+      </c>
+      <c r="BH6" t="s">
+        <v>91</v>
+      </c>
+      <c r="BI6" t="s">
+        <v>92</v>
+      </c>
+      <c r="BJ6" t="s">
+        <v>91</v>
+      </c>
+      <c r="BK6" t="s">
+        <v>93</v>
+      </c>
+      <c r="BL6" t="s">
+        <v>112</v>
+      </c>
+      <c r="BM6" t="s">
+        <v>113</v>
+      </c>
+      <c r="BN6" t="s">
+        <v>106</v>
+      </c>
+      <c r="BO6" t="s">
+        <v>106</v>
+      </c>
+      <c r="BP6" t="s">
+        <v>92</v>
+      </c>
+      <c r="BQ6" t="s">
+        <v>108</v>
+      </c>
+      <c r="BR6" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>89</v>
+      </c>
+      <c r="B7" t="s">
+        <v>90</v>
+      </c>
+      <c r="C7" t="s">
+        <v>91</v>
+      </c>
+      <c r="D7" t="s">
+        <v>91</v>
+      </c>
+      <c r="E7" t="s">
+        <v>92</v>
+      </c>
+      <c r="F7" t="s">
+        <v>91</v>
+      </c>
+      <c r="G7" t="s">
+        <v>93</v>
+      </c>
+      <c r="H7" t="s">
+        <v>94</v>
+      </c>
+      <c r="I7" t="s">
+        <v>95</v>
+      </c>
+      <c r="J7" t="s">
+        <v>91</v>
+      </c>
+      <c r="K7" t="s">
+        <v>91</v>
+      </c>
+      <c r="L7" t="s">
+        <v>92</v>
+      </c>
+      <c r="M7" t="s">
+        <v>91</v>
+      </c>
+      <c r="N7" t="s">
+        <v>93</v>
+      </c>
+      <c r="O7" t="s">
+        <v>96</v>
+      </c>
+      <c r="P7" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>91</v>
+      </c>
+      <c r="R7" t="s">
+        <v>91</v>
+      </c>
+      <c r="S7" t="s">
+        <v>92</v>
+      </c>
+      <c r="T7" t="s">
+        <v>91</v>
+      </c>
+      <c r="U7" t="s">
+        <v>93</v>
+      </c>
+      <c r="V7" t="s">
+        <v>98</v>
+      </c>
+      <c r="W7" t="s">
+        <v>99</v>
+      </c>
+      <c r="X7" t="s">
+        <v>91</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>91</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>92</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>91</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>93</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>100</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>101</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>91</v>
+      </c>
+      <c r="AF7" t="s">
+        <v>91</v>
+      </c>
+      <c r="AG7" t="s">
+        <v>92</v>
+      </c>
+      <c r="AH7" t="s">
+        <v>91</v>
+      </c>
+      <c r="AI7" t="s">
+        <v>93</v>
+      </c>
+      <c r="AJ7" t="s">
+        <v>102</v>
+      </c>
+      <c r="AK7" t="s">
+        <v>103</v>
+      </c>
+      <c r="AL7" t="s">
+        <v>91</v>
+      </c>
+      <c r="AM7" t="s">
+        <v>91</v>
+      </c>
+      <c r="AN7" t="s">
+        <v>92</v>
+      </c>
+      <c r="AO7" t="s">
+        <v>91</v>
+      </c>
+      <c r="AP7" t="s">
+        <v>93</v>
+      </c>
+      <c r="AQ7" t="s">
+        <v>104</v>
+      </c>
+      <c r="AR7" t="s">
+        <v>105</v>
+      </c>
+      <c r="AS7" t="s">
+        <v>106</v>
+      </c>
+      <c r="AT7" t="s">
+        <v>106</v>
+      </c>
+      <c r="AU7" t="s">
+        <v>107</v>
+      </c>
+      <c r="AV7" t="s">
+        <v>108</v>
+      </c>
+      <c r="AW7" t="s">
+        <v>93</v>
+      </c>
+      <c r="AX7" t="s">
+        <v>109</v>
+      </c>
+      <c r="AY7" t="s">
+        <v>105</v>
+      </c>
+      <c r="AZ7" t="s">
+        <v>106</v>
+      </c>
+      <c r="BA7" t="s">
+        <v>106</v>
+      </c>
+      <c r="BB7" t="s">
+        <v>107</v>
+      </c>
+      <c r="BC7" t="s">
+        <v>108</v>
+      </c>
+      <c r="BD7" t="s">
+        <v>93</v>
+      </c>
+      <c r="BE7" t="s">
+        <v>110</v>
+      </c>
+      <c r="BF7" t="s">
+        <v>111</v>
+      </c>
+      <c r="BG7" t="s">
+        <v>91</v>
+      </c>
+      <c r="BH7" t="s">
+        <v>91</v>
+      </c>
+      <c r="BI7" t="s">
+        <v>92</v>
+      </c>
+      <c r="BJ7" t="s">
+        <v>91</v>
+      </c>
+      <c r="BK7" t="s">
+        <v>93</v>
+      </c>
+      <c r="BL7" t="s">
+        <v>112</v>
+      </c>
+      <c r="BM7" t="s">
+        <v>113</v>
+      </c>
+      <c r="BN7" t="s">
+        <v>106</v>
+      </c>
+      <c r="BO7" t="s">
+        <v>106</v>
+      </c>
+      <c r="BP7" t="s">
+        <v>92</v>
+      </c>
+      <c r="BQ7" t="s">
+        <v>108</v>
+      </c>
+      <c r="BR7" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>89</v>
+      </c>
+      <c r="B8" t="s">
+        <v>90</v>
+      </c>
+      <c r="C8" t="s">
+        <v>91</v>
+      </c>
+      <c r="D8" t="s">
+        <v>91</v>
+      </c>
+      <c r="E8" t="s">
+        <v>92</v>
+      </c>
+      <c r="F8" t="s">
+        <v>91</v>
+      </c>
+      <c r="G8" t="s">
+        <v>93</v>
+      </c>
+      <c r="H8" t="s">
+        <v>94</v>
+      </c>
+      <c r="I8" t="s">
+        <v>95</v>
+      </c>
+      <c r="J8" t="s">
+        <v>91</v>
+      </c>
+      <c r="K8" t="s">
+        <v>91</v>
+      </c>
+      <c r="L8" t="s">
+        <v>92</v>
+      </c>
+      <c r="M8" t="s">
+        <v>91</v>
+      </c>
+      <c r="N8" t="s">
+        <v>93</v>
+      </c>
+      <c r="O8" t="s">
+        <v>96</v>
+      </c>
+      <c r="P8" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>91</v>
+      </c>
+      <c r="R8" t="s">
+        <v>91</v>
+      </c>
+      <c r="S8" t="s">
+        <v>92</v>
+      </c>
+      <c r="T8" t="s">
+        <v>91</v>
+      </c>
+      <c r="U8" t="s">
+        <v>93</v>
+      </c>
+      <c r="V8" t="s">
+        <v>98</v>
+      </c>
+      <c r="W8" t="s">
+        <v>99</v>
+      </c>
+      <c r="X8" t="s">
+        <v>91</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>91</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>92</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>91</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>93</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>100</v>
+      </c>
+      <c r="AD8" t="s">
+        <v>101</v>
+      </c>
+      <c r="AE8" t="s">
+        <v>91</v>
+      </c>
+      <c r="AF8" t="s">
+        <v>91</v>
+      </c>
+      <c r="AG8" t="s">
+        <v>92</v>
+      </c>
+      <c r="AH8" t="s">
+        <v>91</v>
+      </c>
+      <c r="AI8" t="s">
+        <v>93</v>
+      </c>
+      <c r="AJ8" t="s">
+        <v>102</v>
+      </c>
+      <c r="AK8" t="s">
+        <v>103</v>
+      </c>
+      <c r="AL8" t="s">
+        <v>91</v>
+      </c>
+      <c r="AM8" t="s">
+        <v>91</v>
+      </c>
+      <c r="AN8" t="s">
+        <v>92</v>
+      </c>
+      <c r="AO8" t="s">
+        <v>91</v>
+      </c>
+      <c r="AP8" t="s">
+        <v>93</v>
+      </c>
+      <c r="AQ8" t="s">
+        <v>104</v>
+      </c>
+      <c r="AR8" t="s">
+        <v>105</v>
+      </c>
+      <c r="AS8" t="s">
+        <v>106</v>
+      </c>
+      <c r="AT8" t="s">
+        <v>106</v>
+      </c>
+      <c r="AU8" t="s">
+        <v>107</v>
+      </c>
+      <c r="AV8" t="s">
+        <v>108</v>
+      </c>
+      <c r="AW8" t="s">
+        <v>93</v>
+      </c>
+      <c r="AX8" t="s">
+        <v>109</v>
+      </c>
+      <c r="AY8" t="s">
+        <v>105</v>
+      </c>
+      <c r="AZ8" t="s">
+        <v>106</v>
+      </c>
+      <c r="BA8" t="s">
+        <v>106</v>
+      </c>
+      <c r="BB8" t="s">
+        <v>107</v>
+      </c>
+      <c r="BC8" t="s">
+        <v>108</v>
+      </c>
+      <c r="BD8" t="s">
+        <v>93</v>
+      </c>
+      <c r="BE8" t="s">
+        <v>110</v>
+      </c>
+      <c r="BF8" t="s">
+        <v>111</v>
+      </c>
+      <c r="BG8" t="s">
+        <v>91</v>
+      </c>
+      <c r="BH8" t="s">
+        <v>91</v>
+      </c>
+      <c r="BI8" t="s">
+        <v>92</v>
+      </c>
+      <c r="BJ8" t="s">
+        <v>91</v>
+      </c>
+      <c r="BK8" t="s">
+        <v>93</v>
+      </c>
+      <c r="BL8" t="s">
+        <v>112</v>
+      </c>
+      <c r="BM8" t="s">
+        <v>113</v>
+      </c>
+      <c r="BN8" t="s">
+        <v>106</v>
+      </c>
+      <c r="BO8" t="s">
+        <v>106</v>
+      </c>
+      <c r="BP8" t="s">
+        <v>92</v>
+      </c>
+      <c r="BQ8" t="s">
+        <v>108</v>
+      </c>
+      <c r="BR8" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>89</v>
+      </c>
+      <c r="B9" t="s">
+        <v>90</v>
+      </c>
+      <c r="C9" t="s">
+        <v>91</v>
+      </c>
+      <c r="D9" t="s">
+        <v>91</v>
+      </c>
+      <c r="E9" t="s">
+        <v>92</v>
+      </c>
+      <c r="F9" t="s">
+        <v>91</v>
+      </c>
+      <c r="G9" t="s">
+        <v>93</v>
+      </c>
+      <c r="H9" t="s">
+        <v>94</v>
+      </c>
+      <c r="I9" t="s">
+        <v>95</v>
+      </c>
+      <c r="J9" t="s">
+        <v>91</v>
+      </c>
+      <c r="K9" t="s">
+        <v>91</v>
+      </c>
+      <c r="L9" t="s">
+        <v>92</v>
+      </c>
+      <c r="M9" t="s">
+        <v>91</v>
+      </c>
+      <c r="N9" t="s">
+        <v>93</v>
+      </c>
+      <c r="O9" t="s">
+        <v>96</v>
+      </c>
+      <c r="P9" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>91</v>
+      </c>
+      <c r="R9" t="s">
+        <v>91</v>
+      </c>
+      <c r="S9" t="s">
+        <v>92</v>
+      </c>
+      <c r="T9" t="s">
+        <v>91</v>
+      </c>
+      <c r="U9" t="s">
+        <v>93</v>
+      </c>
+      <c r="V9" t="s">
+        <v>98</v>
+      </c>
+      <c r="W9" t="s">
+        <v>99</v>
+      </c>
+      <c r="X9" t="s">
+        <v>91</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>91</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>92</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>91</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>93</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>100</v>
+      </c>
+      <c r="AD9" t="s">
+        <v>101</v>
+      </c>
+      <c r="AE9" t="s">
+        <v>91</v>
+      </c>
+      <c r="AF9" t="s">
+        <v>91</v>
+      </c>
+      <c r="AG9" t="s">
+        <v>92</v>
+      </c>
+      <c r="AH9" t="s">
+        <v>91</v>
+      </c>
+      <c r="AI9" t="s">
+        <v>93</v>
+      </c>
+      <c r="AJ9" t="s">
+        <v>102</v>
+      </c>
+      <c r="AK9" t="s">
+        <v>103</v>
+      </c>
+      <c r="AL9" t="s">
+        <v>91</v>
+      </c>
+      <c r="AM9" t="s">
+        <v>91</v>
+      </c>
+      <c r="AN9" t="s">
+        <v>92</v>
+      </c>
+      <c r="AO9" t="s">
+        <v>91</v>
+      </c>
+      <c r="AP9" t="s">
+        <v>93</v>
+      </c>
+      <c r="AQ9" t="s">
+        <v>104</v>
+      </c>
+      <c r="AR9" t="s">
+        <v>105</v>
+      </c>
+      <c r="AS9" t="s">
+        <v>106</v>
+      </c>
+      <c r="AT9" t="s">
+        <v>106</v>
+      </c>
+      <c r="AU9" t="s">
+        <v>107</v>
+      </c>
+      <c r="AV9" t="s">
+        <v>108</v>
+      </c>
+      <c r="AW9" t="s">
+        <v>93</v>
+      </c>
+      <c r="AX9" t="s">
+        <v>109</v>
+      </c>
+      <c r="AY9" t="s">
+        <v>105</v>
+      </c>
+      <c r="AZ9" t="s">
+        <v>106</v>
+      </c>
+      <c r="BA9" t="s">
+        <v>106</v>
+      </c>
+      <c r="BB9" t="s">
+        <v>107</v>
+      </c>
+      <c r="BC9" t="s">
+        <v>108</v>
+      </c>
+      <c r="BD9" t="s">
+        <v>93</v>
+      </c>
+      <c r="BE9" t="s">
+        <v>110</v>
+      </c>
+      <c r="BF9" t="s">
+        <v>111</v>
+      </c>
+      <c r="BG9" t="s">
+        <v>91</v>
+      </c>
+      <c r="BH9" t="s">
+        <v>91</v>
+      </c>
+      <c r="BI9" t="s">
+        <v>92</v>
+      </c>
+      <c r="BJ9" t="s">
+        <v>91</v>
+      </c>
+      <c r="BK9" t="s">
+        <v>93</v>
+      </c>
+      <c r="BL9" t="s">
+        <v>112</v>
+      </c>
+      <c r="BM9" t="s">
+        <v>113</v>
+      </c>
+      <c r="BN9" t="s">
+        <v>106</v>
+      </c>
+      <c r="BO9" t="s">
+        <v>106</v>
+      </c>
+      <c r="BP9" t="s">
+        <v>92</v>
+      </c>
+      <c r="BQ9" t="s">
+        <v>108</v>
+      </c>
+      <c r="BR9" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>89</v>
+      </c>
+      <c r="B10" t="s">
+        <v>90</v>
+      </c>
+      <c r="C10" t="s">
+        <v>91</v>
+      </c>
+      <c r="D10" t="s">
+        <v>91</v>
+      </c>
+      <c r="E10" t="s">
+        <v>92</v>
+      </c>
+      <c r="F10" t="s">
+        <v>91</v>
+      </c>
+      <c r="G10" t="s">
+        <v>93</v>
+      </c>
+      <c r="H10" t="s">
+        <v>94</v>
+      </c>
+      <c r="I10" t="s">
+        <v>95</v>
+      </c>
+      <c r="J10" t="s">
+        <v>91</v>
+      </c>
+      <c r="K10" t="s">
+        <v>91</v>
+      </c>
+      <c r="L10" t="s">
+        <v>92</v>
+      </c>
+      <c r="M10" t="s">
+        <v>91</v>
+      </c>
+      <c r="N10" t="s">
+        <v>93</v>
+      </c>
+      <c r="O10" t="s">
+        <v>96</v>
+      </c>
+      <c r="P10" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>91</v>
+      </c>
+      <c r="R10" t="s">
+        <v>91</v>
+      </c>
+      <c r="S10" t="s">
+        <v>92</v>
+      </c>
+      <c r="T10" t="s">
+        <v>91</v>
+      </c>
+      <c r="U10" t="s">
+        <v>93</v>
+      </c>
+      <c r="V10" t="s">
+        <v>98</v>
+      </c>
+      <c r="W10" t="s">
+        <v>99</v>
+      </c>
+      <c r="X10" t="s">
+        <v>91</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>91</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>92</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>91</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>93</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>100</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>101</v>
+      </c>
+      <c r="AE10" t="s">
+        <v>91</v>
+      </c>
+      <c r="AF10" t="s">
+        <v>91</v>
+      </c>
+      <c r="AG10" t="s">
+        <v>92</v>
+      </c>
+      <c r="AH10" t="s">
+        <v>91</v>
+      </c>
+      <c r="AI10" t="s">
+        <v>93</v>
+      </c>
+      <c r="AJ10" t="s">
+        <v>102</v>
+      </c>
+      <c r="AK10" t="s">
+        <v>103</v>
+      </c>
+      <c r="AL10" t="s">
+        <v>91</v>
+      </c>
+      <c r="AM10" t="s">
+        <v>91</v>
+      </c>
+      <c r="AN10" t="s">
+        <v>92</v>
+      </c>
+      <c r="AO10" t="s">
+        <v>91</v>
+      </c>
+      <c r="AP10" t="s">
+        <v>93</v>
+      </c>
+      <c r="AQ10" t="s">
+        <v>104</v>
+      </c>
+      <c r="AR10" t="s">
+        <v>105</v>
+      </c>
+      <c r="AS10" t="s">
+        <v>106</v>
+      </c>
+      <c r="AT10" t="s">
+        <v>106</v>
+      </c>
+      <c r="AU10" t="s">
+        <v>107</v>
+      </c>
+      <c r="AV10" t="s">
+        <v>108</v>
+      </c>
+      <c r="AW10" t="s">
+        <v>93</v>
+      </c>
+      <c r="AX10" t="s">
+        <v>109</v>
+      </c>
+      <c r="AY10" t="s">
+        <v>105</v>
+      </c>
+      <c r="AZ10" t="s">
+        <v>106</v>
+      </c>
+      <c r="BA10" t="s">
+        <v>106</v>
+      </c>
+      <c r="BB10" t="s">
+        <v>107</v>
+      </c>
+      <c r="BC10" t="s">
+        <v>108</v>
+      </c>
+      <c r="BD10" t="s">
+        <v>93</v>
+      </c>
+      <c r="BE10" t="s">
+        <v>110</v>
+      </c>
+      <c r="BF10" t="s">
+        <v>111</v>
+      </c>
+      <c r="BG10" t="s">
+        <v>91</v>
+      </c>
+      <c r="BH10" t="s">
+        <v>91</v>
+      </c>
+      <c r="BI10" t="s">
+        <v>92</v>
+      </c>
+      <c r="BJ10" t="s">
+        <v>91</v>
+      </c>
+      <c r="BK10" t="s">
+        <v>93</v>
+      </c>
+      <c r="BL10" t="s">
+        <v>112</v>
+      </c>
+      <c r="BM10" t="s">
+        <v>113</v>
+      </c>
+      <c r="BN10" t="s">
+        <v>106</v>
+      </c>
+      <c r="BO10" t="s">
+        <v>106</v>
+      </c>
+      <c r="BP10" t="s">
+        <v>92</v>
+      </c>
+      <c r="BQ10" t="s">
+        <v>108</v>
+      </c>
+      <c r="BR10" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>89</v>
+      </c>
+      <c r="B11" t="s">
+        <v>90</v>
+      </c>
+      <c r="C11" t="s">
+        <v>91</v>
+      </c>
+      <c r="D11" t="s">
+        <v>91</v>
+      </c>
+      <c r="E11" t="s">
+        <v>92</v>
+      </c>
+      <c r="F11" t="s">
+        <v>91</v>
+      </c>
+      <c r="G11" t="s">
+        <v>93</v>
+      </c>
+      <c r="H11" t="s">
+        <v>94</v>
+      </c>
+      <c r="I11" t="s">
+        <v>95</v>
+      </c>
+      <c r="J11" t="s">
+        <v>91</v>
+      </c>
+      <c r="K11" t="s">
+        <v>91</v>
+      </c>
+      <c r="L11" t="s">
+        <v>92</v>
+      </c>
+      <c r="M11" t="s">
+        <v>91</v>
+      </c>
+      <c r="N11" t="s">
+        <v>93</v>
+      </c>
+      <c r="O11" t="s">
+        <v>96</v>
+      </c>
+      <c r="P11" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>91</v>
+      </c>
+      <c r="R11" t="s">
+        <v>91</v>
+      </c>
+      <c r="S11" t="s">
+        <v>92</v>
+      </c>
+      <c r="T11" t="s">
+        <v>91</v>
+      </c>
+      <c r="U11" t="s">
+        <v>93</v>
+      </c>
+      <c r="V11" t="s">
+        <v>98</v>
+      </c>
+      <c r="W11" t="s">
+        <v>99</v>
+      </c>
+      <c r="X11" t="s">
+        <v>91</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>91</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>92</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>91</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>93</v>
+      </c>
+      <c r="AC11" t="s">
+        <v>100</v>
+      </c>
+      <c r="AD11" t="s">
+        <v>101</v>
+      </c>
+      <c r="AE11" t="s">
+        <v>91</v>
+      </c>
+      <c r="AF11" t="s">
+        <v>91</v>
+      </c>
+      <c r="AG11" t="s">
+        <v>92</v>
+      </c>
+      <c r="AH11" t="s">
+        <v>91</v>
+      </c>
+      <c r="AI11" t="s">
+        <v>93</v>
+      </c>
+      <c r="AJ11" t="s">
+        <v>102</v>
+      </c>
+      <c r="AK11" t="s">
+        <v>103</v>
+      </c>
+      <c r="AL11" t="s">
+        <v>91</v>
+      </c>
+      <c r="AM11" t="s">
+        <v>91</v>
+      </c>
+      <c r="AN11" t="s">
+        <v>92</v>
+      </c>
+      <c r="AO11" t="s">
+        <v>91</v>
+      </c>
+      <c r="AP11" t="s">
+        <v>93</v>
+      </c>
+      <c r="AQ11" t="s">
+        <v>104</v>
+      </c>
+      <c r="AR11" t="s">
+        <v>105</v>
+      </c>
+      <c r="AS11" t="s">
+        <v>106</v>
+      </c>
+      <c r="AT11" t="s">
+        <v>106</v>
+      </c>
+      <c r="AU11" t="s">
+        <v>107</v>
+      </c>
+      <c r="AV11" t="s">
+        <v>108</v>
+      </c>
+      <c r="AW11" t="s">
+        <v>93</v>
+      </c>
+      <c r="AX11" t="s">
+        <v>109</v>
+      </c>
+      <c r="AY11" t="s">
+        <v>105</v>
+      </c>
+      <c r="AZ11" t="s">
+        <v>106</v>
+      </c>
+      <c r="BA11" t="s">
+        <v>106</v>
+      </c>
+      <c r="BB11" t="s">
+        <v>107</v>
+      </c>
+      <c r="BC11" t="s">
+        <v>108</v>
+      </c>
+      <c r="BD11" t="s">
+        <v>93</v>
+      </c>
+      <c r="BE11" t="s">
+        <v>110</v>
+      </c>
+      <c r="BF11" t="s">
+        <v>111</v>
+      </c>
+      <c r="BG11" t="s">
+        <v>91</v>
+      </c>
+      <c r="BH11" t="s">
+        <v>91</v>
+      </c>
+      <c r="BI11" t="s">
+        <v>92</v>
+      </c>
+      <c r="BJ11" t="s">
+        <v>91</v>
+      </c>
+      <c r="BK11" t="s">
+        <v>93</v>
+      </c>
+      <c r="BL11" t="s">
+        <v>112</v>
+      </c>
+      <c r="BM11" t="s">
+        <v>113</v>
+      </c>
+      <c r="BN11" t="s">
+        <v>106</v>
+      </c>
+      <c r="BO11" t="s">
+        <v>106</v>
+      </c>
+      <c r="BP11" t="s">
+        <v>92</v>
+      </c>
+      <c r="BQ11" t="s">
+        <v>108</v>
+      </c>
+      <c r="BR11" t="s">
+        <v>93</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>

--- a/CRM/src/main/resources/ninza crm data .xlsx
+++ b/CRM/src/main/resources/ninza crm data .xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="793" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1493" uniqueCount="115">
   <si>
     <t>campaignName</t>
   </si>
@@ -374,6 +374,9 @@
   </si>
   <si>
     <t>AI Sales</t>
+  </si>
+  <si>
+    <t>CAM15650</t>
   </si>
 </sst>
 </file>
@@ -1750,154 +1753,154 @@
   <sheetData>
     <row r="2">
       <c r="A2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F2" t="s">
+        <v>108</v>
+      </c>
+      <c r="G2" t="s">
+        <v>93</v>
+      </c>
+      <c r="H2" t="s">
         <v>89</v>
       </c>
-      <c r="B2" t="s">
+      <c r="I2" t="s">
         <v>90</v>
       </c>
-      <c r="C2" t="s">
-        <v>91</v>
-      </c>
-      <c r="D2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E2" t="s">
-        <v>92</v>
-      </c>
-      <c r="F2" t="s">
-        <v>91</v>
-      </c>
-      <c r="G2" t="s">
-        <v>93</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="J2" t="s">
+        <v>91</v>
+      </c>
+      <c r="K2" t="s">
+        <v>91</v>
+      </c>
+      <c r="L2" t="s">
+        <v>92</v>
+      </c>
+      <c r="M2" t="s">
+        <v>91</v>
+      </c>
+      <c r="N2" t="s">
+        <v>93</v>
+      </c>
+      <c r="O2" t="s">
         <v>94</v>
       </c>
-      <c r="I2" t="s">
+      <c r="P2" t="s">
         <v>95</v>
       </c>
-      <c r="J2" t="s">
-        <v>91</v>
-      </c>
-      <c r="K2" t="s">
-        <v>91</v>
-      </c>
-      <c r="L2" t="s">
-        <v>92</v>
-      </c>
-      <c r="M2" t="s">
-        <v>91</v>
-      </c>
-      <c r="N2" t="s">
-        <v>93</v>
-      </c>
-      <c r="O2" t="s">
+      <c r="Q2" t="s">
+        <v>91</v>
+      </c>
+      <c r="R2" t="s">
+        <v>91</v>
+      </c>
+      <c r="S2" t="s">
+        <v>92</v>
+      </c>
+      <c r="T2" t="s">
+        <v>91</v>
+      </c>
+      <c r="U2" t="s">
+        <v>93</v>
+      </c>
+      <c r="V2" t="s">
         <v>96</v>
       </c>
-      <c r="P2" t="s">
+      <c r="W2" t="s">
         <v>97</v>
       </c>
-      <c r="Q2" t="s">
-        <v>91</v>
-      </c>
-      <c r="R2" t="s">
-        <v>91</v>
-      </c>
-      <c r="S2" t="s">
-        <v>92</v>
-      </c>
-      <c r="T2" t="s">
-        <v>91</v>
-      </c>
-      <c r="U2" t="s">
-        <v>93</v>
-      </c>
-      <c r="V2" t="s">
+      <c r="X2" t="s">
+        <v>91</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>91</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>92</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>91</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>93</v>
+      </c>
+      <c r="AC2" t="s">
         <v>98</v>
       </c>
-      <c r="W2" t="s">
+      <c r="AD2" t="s">
         <v>99</v>
       </c>
-      <c r="X2" t="s">
-        <v>91</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>91</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>92</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>91</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>93</v>
-      </c>
-      <c r="AC2" t="s">
+      <c r="AE2" t="s">
+        <v>91</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>91</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>92</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>91</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>93</v>
+      </c>
+      <c r="AJ2" t="s">
         <v>100</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AK2" t="s">
         <v>101</v>
       </c>
-      <c r="AE2" t="s">
-        <v>91</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>91</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>92</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>91</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>93</v>
-      </c>
-      <c r="AJ2" t="s">
+      <c r="AL2" t="s">
+        <v>91</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>91</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>92</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>91</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>93</v>
+      </c>
+      <c r="AQ2" t="s">
         <v>102</v>
       </c>
-      <c r="AK2" t="s">
+      <c r="AR2" t="s">
         <v>103</v>
       </c>
-      <c r="AL2" t="s">
-        <v>91</v>
-      </c>
-      <c r="AM2" t="s">
-        <v>91</v>
-      </c>
-      <c r="AN2" t="s">
-        <v>92</v>
-      </c>
-      <c r="AO2" t="s">
-        <v>91</v>
-      </c>
-      <c r="AP2" t="s">
-        <v>93</v>
-      </c>
-      <c r="AQ2" t="s">
+      <c r="AS2" t="s">
+        <v>91</v>
+      </c>
+      <c r="AT2" t="s">
+        <v>91</v>
+      </c>
+      <c r="AU2" t="s">
+        <v>92</v>
+      </c>
+      <c r="AV2" t="s">
+        <v>91</v>
+      </c>
+      <c r="AW2" t="s">
+        <v>93</v>
+      </c>
+      <c r="AX2" t="s">
         <v>104</v>
-      </c>
-      <c r="AR2" t="s">
-        <v>105</v>
-      </c>
-      <c r="AS2" t="s">
-        <v>106</v>
-      </c>
-      <c r="AT2" t="s">
-        <v>106</v>
-      </c>
-      <c r="AU2" t="s">
-        <v>107</v>
-      </c>
-      <c r="AV2" t="s">
-        <v>108</v>
-      </c>
-      <c r="AW2" t="s">
-        <v>93</v>
-      </c>
-      <c r="AX2" t="s">
-        <v>109</v>
       </c>
       <c r="AY2" t="s">
         <v>105</v>
@@ -1918,43 +1921,43 @@
         <v>93</v>
       </c>
       <c r="BE2" t="s">
+        <v>109</v>
+      </c>
+      <c r="BF2" t="s">
+        <v>105</v>
+      </c>
+      <c r="BG2" t="s">
+        <v>106</v>
+      </c>
+      <c r="BH2" t="s">
+        <v>106</v>
+      </c>
+      <c r="BI2" t="s">
+        <v>107</v>
+      </c>
+      <c r="BJ2" t="s">
+        <v>108</v>
+      </c>
+      <c r="BK2" t="s">
+        <v>93</v>
+      </c>
+      <c r="BL2" t="s">
         <v>110</v>
       </c>
-      <c r="BF2" t="s">
+      <c r="BM2" t="s">
         <v>111</v>
       </c>
-      <c r="BG2" t="s">
-        <v>91</v>
-      </c>
-      <c r="BH2" t="s">
-        <v>91</v>
-      </c>
-      <c r="BI2" t="s">
-        <v>92</v>
-      </c>
-      <c r="BJ2" t="s">
-        <v>91</v>
-      </c>
-      <c r="BK2" t="s">
-        <v>93</v>
-      </c>
-      <c r="BL2" t="s">
-        <v>112</v>
-      </c>
-      <c r="BM2" t="s">
-        <v>113</v>
-      </c>
       <c r="BN2" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="BO2" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="BP2" t="s">
         <v>92</v>
       </c>
       <c r="BQ2" t="s">
-        <v>108</v>
+        <v>91</v>
       </c>
       <c r="BR2" t="s">
         <v>93</v>
@@ -1962,154 +1965,154 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C3" t="s">
+        <v>106</v>
+      </c>
+      <c r="D3" t="s">
+        <v>106</v>
+      </c>
+      <c r="E3" t="s">
+        <v>92</v>
+      </c>
+      <c r="F3" t="s">
+        <v>108</v>
+      </c>
+      <c r="G3" t="s">
+        <v>93</v>
+      </c>
+      <c r="H3" t="s">
         <v>89</v>
       </c>
-      <c r="B3" t="s">
+      <c r="I3" t="s">
         <v>90</v>
       </c>
-      <c r="C3" t="s">
-        <v>91</v>
-      </c>
-      <c r="D3" t="s">
-        <v>91</v>
-      </c>
-      <c r="E3" t="s">
-        <v>92</v>
-      </c>
-      <c r="F3" t="s">
-        <v>91</v>
-      </c>
-      <c r="G3" t="s">
-        <v>93</v>
-      </c>
-      <c r="H3" t="s">
+      <c r="J3" t="s">
+        <v>91</v>
+      </c>
+      <c r="K3" t="s">
+        <v>91</v>
+      </c>
+      <c r="L3" t="s">
+        <v>92</v>
+      </c>
+      <c r="M3" t="s">
+        <v>91</v>
+      </c>
+      <c r="N3" t="s">
+        <v>93</v>
+      </c>
+      <c r="O3" t="s">
         <v>94</v>
       </c>
-      <c r="I3" t="s">
+      <c r="P3" t="s">
         <v>95</v>
       </c>
-      <c r="J3" t="s">
-        <v>91</v>
-      </c>
-      <c r="K3" t="s">
-        <v>91</v>
-      </c>
-      <c r="L3" t="s">
-        <v>92</v>
-      </c>
-      <c r="M3" t="s">
-        <v>91</v>
-      </c>
-      <c r="N3" t="s">
-        <v>93</v>
-      </c>
-      <c r="O3" t="s">
+      <c r="Q3" t="s">
+        <v>91</v>
+      </c>
+      <c r="R3" t="s">
+        <v>91</v>
+      </c>
+      <c r="S3" t="s">
+        <v>92</v>
+      </c>
+      <c r="T3" t="s">
+        <v>91</v>
+      </c>
+      <c r="U3" t="s">
+        <v>93</v>
+      </c>
+      <c r="V3" t="s">
         <v>96</v>
       </c>
-      <c r="P3" t="s">
+      <c r="W3" t="s">
         <v>97</v>
       </c>
-      <c r="Q3" t="s">
-        <v>91</v>
-      </c>
-      <c r="R3" t="s">
-        <v>91</v>
-      </c>
-      <c r="S3" t="s">
-        <v>92</v>
-      </c>
-      <c r="T3" t="s">
-        <v>91</v>
-      </c>
-      <c r="U3" t="s">
-        <v>93</v>
-      </c>
-      <c r="V3" t="s">
+      <c r="X3" t="s">
+        <v>91</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>91</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>92</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>91</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>93</v>
+      </c>
+      <c r="AC3" t="s">
         <v>98</v>
       </c>
-      <c r="W3" t="s">
+      <c r="AD3" t="s">
         <v>99</v>
       </c>
-      <c r="X3" t="s">
-        <v>91</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>91</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>92</v>
-      </c>
-      <c r="AA3" t="s">
-        <v>91</v>
-      </c>
-      <c r="AB3" t="s">
-        <v>93</v>
-      </c>
-      <c r="AC3" t="s">
+      <c r="AE3" t="s">
+        <v>91</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>91</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>92</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>91</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>93</v>
+      </c>
+      <c r="AJ3" t="s">
         <v>100</v>
       </c>
-      <c r="AD3" t="s">
+      <c r="AK3" t="s">
         <v>101</v>
       </c>
-      <c r="AE3" t="s">
-        <v>91</v>
-      </c>
-      <c r="AF3" t="s">
-        <v>91</v>
-      </c>
-      <c r="AG3" t="s">
-        <v>92</v>
-      </c>
-      <c r="AH3" t="s">
-        <v>91</v>
-      </c>
-      <c r="AI3" t="s">
-        <v>93</v>
-      </c>
-      <c r="AJ3" t="s">
+      <c r="AL3" t="s">
+        <v>91</v>
+      </c>
+      <c r="AM3" t="s">
+        <v>91</v>
+      </c>
+      <c r="AN3" t="s">
+        <v>92</v>
+      </c>
+      <c r="AO3" t="s">
+        <v>91</v>
+      </c>
+      <c r="AP3" t="s">
+        <v>93</v>
+      </c>
+      <c r="AQ3" t="s">
         <v>102</v>
       </c>
-      <c r="AK3" t="s">
+      <c r="AR3" t="s">
         <v>103</v>
       </c>
-      <c r="AL3" t="s">
-        <v>91</v>
-      </c>
-      <c r="AM3" t="s">
-        <v>91</v>
-      </c>
-      <c r="AN3" t="s">
-        <v>92</v>
-      </c>
-      <c r="AO3" t="s">
-        <v>91</v>
-      </c>
-      <c r="AP3" t="s">
-        <v>93</v>
-      </c>
-      <c r="AQ3" t="s">
+      <c r="AS3" t="s">
+        <v>91</v>
+      </c>
+      <c r="AT3" t="s">
+        <v>91</v>
+      </c>
+      <c r="AU3" t="s">
+        <v>92</v>
+      </c>
+      <c r="AV3" t="s">
+        <v>91</v>
+      </c>
+      <c r="AW3" t="s">
+        <v>93</v>
+      </c>
+      <c r="AX3" t="s">
         <v>104</v>
-      </c>
-      <c r="AR3" t="s">
-        <v>105</v>
-      </c>
-      <c r="AS3" t="s">
-        <v>106</v>
-      </c>
-      <c r="AT3" t="s">
-        <v>106</v>
-      </c>
-      <c r="AU3" t="s">
-        <v>107</v>
-      </c>
-      <c r="AV3" t="s">
-        <v>108</v>
-      </c>
-      <c r="AW3" t="s">
-        <v>93</v>
-      </c>
-      <c r="AX3" t="s">
-        <v>109</v>
       </c>
       <c r="AY3" t="s">
         <v>105</v>
@@ -2130,43 +2133,43 @@
         <v>93</v>
       </c>
       <c r="BE3" t="s">
+        <v>109</v>
+      </c>
+      <c r="BF3" t="s">
+        <v>105</v>
+      </c>
+      <c r="BG3" t="s">
+        <v>106</v>
+      </c>
+      <c r="BH3" t="s">
+        <v>106</v>
+      </c>
+      <c r="BI3" t="s">
+        <v>107</v>
+      </c>
+      <c r="BJ3" t="s">
+        <v>108</v>
+      </c>
+      <c r="BK3" t="s">
+        <v>93</v>
+      </c>
+      <c r="BL3" t="s">
         <v>110</v>
       </c>
-      <c r="BF3" t="s">
+      <c r="BM3" t="s">
         <v>111</v>
       </c>
-      <c r="BG3" t="s">
-        <v>91</v>
-      </c>
-      <c r="BH3" t="s">
-        <v>91</v>
-      </c>
-      <c r="BI3" t="s">
-        <v>92</v>
-      </c>
-      <c r="BJ3" t="s">
-        <v>91</v>
-      </c>
-      <c r="BK3" t="s">
-        <v>93</v>
-      </c>
-      <c r="BL3" t="s">
-        <v>112</v>
-      </c>
-      <c r="BM3" t="s">
-        <v>113</v>
-      </c>
       <c r="BN3" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="BO3" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="BP3" t="s">
         <v>92</v>
       </c>
       <c r="BQ3" t="s">
-        <v>108</v>
+        <v>91</v>
       </c>
       <c r="BR3" t="s">
         <v>93</v>
@@ -2174,154 +2177,154 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C4" t="s">
+        <v>106</v>
+      </c>
+      <c r="D4" t="s">
+        <v>106</v>
+      </c>
+      <c r="E4" t="s">
+        <v>92</v>
+      </c>
+      <c r="F4" t="s">
+        <v>108</v>
+      </c>
+      <c r="G4" t="s">
+        <v>93</v>
+      </c>
+      <c r="H4" t="s">
         <v>89</v>
       </c>
-      <c r="B4" t="s">
+      <c r="I4" t="s">
         <v>90</v>
       </c>
-      <c r="C4" t="s">
-        <v>91</v>
-      </c>
-      <c r="D4" t="s">
-        <v>91</v>
-      </c>
-      <c r="E4" t="s">
-        <v>92</v>
-      </c>
-      <c r="F4" t="s">
-        <v>91</v>
-      </c>
-      <c r="G4" t="s">
-        <v>93</v>
-      </c>
-      <c r="H4" t="s">
+      <c r="J4" t="s">
+        <v>91</v>
+      </c>
+      <c r="K4" t="s">
+        <v>91</v>
+      </c>
+      <c r="L4" t="s">
+        <v>92</v>
+      </c>
+      <c r="M4" t="s">
+        <v>91</v>
+      </c>
+      <c r="N4" t="s">
+        <v>93</v>
+      </c>
+      <c r="O4" t="s">
         <v>94</v>
       </c>
-      <c r="I4" t="s">
+      <c r="P4" t="s">
         <v>95</v>
       </c>
-      <c r="J4" t="s">
-        <v>91</v>
-      </c>
-      <c r="K4" t="s">
-        <v>91</v>
-      </c>
-      <c r="L4" t="s">
-        <v>92</v>
-      </c>
-      <c r="M4" t="s">
-        <v>91</v>
-      </c>
-      <c r="N4" t="s">
-        <v>93</v>
-      </c>
-      <c r="O4" t="s">
+      <c r="Q4" t="s">
+        <v>91</v>
+      </c>
+      <c r="R4" t="s">
+        <v>91</v>
+      </c>
+      <c r="S4" t="s">
+        <v>92</v>
+      </c>
+      <c r="T4" t="s">
+        <v>91</v>
+      </c>
+      <c r="U4" t="s">
+        <v>93</v>
+      </c>
+      <c r="V4" t="s">
         <v>96</v>
       </c>
-      <c r="P4" t="s">
+      <c r="W4" t="s">
         <v>97</v>
       </c>
-      <c r="Q4" t="s">
-        <v>91</v>
-      </c>
-      <c r="R4" t="s">
-        <v>91</v>
-      </c>
-      <c r="S4" t="s">
-        <v>92</v>
-      </c>
-      <c r="T4" t="s">
-        <v>91</v>
-      </c>
-      <c r="U4" t="s">
-        <v>93</v>
-      </c>
-      <c r="V4" t="s">
+      <c r="X4" t="s">
+        <v>91</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>91</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>92</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>91</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>93</v>
+      </c>
+      <c r="AC4" t="s">
         <v>98</v>
       </c>
-      <c r="W4" t="s">
+      <c r="AD4" t="s">
         <v>99</v>
       </c>
-      <c r="X4" t="s">
-        <v>91</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>91</v>
-      </c>
-      <c r="Z4" t="s">
-        <v>92</v>
-      </c>
-      <c r="AA4" t="s">
-        <v>91</v>
-      </c>
-      <c r="AB4" t="s">
-        <v>93</v>
-      </c>
-      <c r="AC4" t="s">
+      <c r="AE4" t="s">
+        <v>91</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>91</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>92</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>91</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>93</v>
+      </c>
+      <c r="AJ4" t="s">
         <v>100</v>
       </c>
-      <c r="AD4" t="s">
+      <c r="AK4" t="s">
         <v>101</v>
       </c>
-      <c r="AE4" t="s">
-        <v>91</v>
-      </c>
-      <c r="AF4" t="s">
-        <v>91</v>
-      </c>
-      <c r="AG4" t="s">
-        <v>92</v>
-      </c>
-      <c r="AH4" t="s">
-        <v>91</v>
-      </c>
-      <c r="AI4" t="s">
-        <v>93</v>
-      </c>
-      <c r="AJ4" t="s">
+      <c r="AL4" t="s">
+        <v>91</v>
+      </c>
+      <c r="AM4" t="s">
+        <v>91</v>
+      </c>
+      <c r="AN4" t="s">
+        <v>92</v>
+      </c>
+      <c r="AO4" t="s">
+        <v>91</v>
+      </c>
+      <c r="AP4" t="s">
+        <v>93</v>
+      </c>
+      <c r="AQ4" t="s">
         <v>102</v>
       </c>
-      <c r="AK4" t="s">
+      <c r="AR4" t="s">
         <v>103</v>
       </c>
-      <c r="AL4" t="s">
-        <v>91</v>
-      </c>
-      <c r="AM4" t="s">
-        <v>91</v>
-      </c>
-      <c r="AN4" t="s">
-        <v>92</v>
-      </c>
-      <c r="AO4" t="s">
-        <v>91</v>
-      </c>
-      <c r="AP4" t="s">
-        <v>93</v>
-      </c>
-      <c r="AQ4" t="s">
+      <c r="AS4" t="s">
+        <v>91</v>
+      </c>
+      <c r="AT4" t="s">
+        <v>91</v>
+      </c>
+      <c r="AU4" t="s">
+        <v>92</v>
+      </c>
+      <c r="AV4" t="s">
+        <v>91</v>
+      </c>
+      <c r="AW4" t="s">
+        <v>93</v>
+      </c>
+      <c r="AX4" t="s">
         <v>104</v>
-      </c>
-      <c r="AR4" t="s">
-        <v>105</v>
-      </c>
-      <c r="AS4" t="s">
-        <v>106</v>
-      </c>
-      <c r="AT4" t="s">
-        <v>106</v>
-      </c>
-      <c r="AU4" t="s">
-        <v>107</v>
-      </c>
-      <c r="AV4" t="s">
-        <v>108</v>
-      </c>
-      <c r="AW4" t="s">
-        <v>93</v>
-      </c>
-      <c r="AX4" t="s">
-        <v>109</v>
       </c>
       <c r="AY4" t="s">
         <v>105</v>
@@ -2342,43 +2345,43 @@
         <v>93</v>
       </c>
       <c r="BE4" t="s">
+        <v>109</v>
+      </c>
+      <c r="BF4" t="s">
+        <v>105</v>
+      </c>
+      <c r="BG4" t="s">
+        <v>106</v>
+      </c>
+      <c r="BH4" t="s">
+        <v>106</v>
+      </c>
+      <c r="BI4" t="s">
+        <v>107</v>
+      </c>
+      <c r="BJ4" t="s">
+        <v>108</v>
+      </c>
+      <c r="BK4" t="s">
+        <v>93</v>
+      </c>
+      <c r="BL4" t="s">
         <v>110</v>
       </c>
-      <c r="BF4" t="s">
+      <c r="BM4" t="s">
         <v>111</v>
       </c>
-      <c r="BG4" t="s">
-        <v>91</v>
-      </c>
-      <c r="BH4" t="s">
-        <v>91</v>
-      </c>
-      <c r="BI4" t="s">
-        <v>92</v>
-      </c>
-      <c r="BJ4" t="s">
-        <v>91</v>
-      </c>
-      <c r="BK4" t="s">
-        <v>93</v>
-      </c>
-      <c r="BL4" t="s">
-        <v>112</v>
-      </c>
-      <c r="BM4" t="s">
-        <v>113</v>
-      </c>
       <c r="BN4" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="BO4" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="BP4" t="s">
         <v>92</v>
       </c>
       <c r="BQ4" t="s">
-        <v>108</v>
+        <v>91</v>
       </c>
       <c r="BR4" t="s">
         <v>93</v>
@@ -2386,154 +2389,154 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
+        <v>114</v>
+      </c>
+      <c r="B5" t="s">
+        <v>113</v>
+      </c>
+      <c r="C5" t="s">
+        <v>106</v>
+      </c>
+      <c r="D5" t="s">
+        <v>106</v>
+      </c>
+      <c r="E5" t="s">
+        <v>92</v>
+      </c>
+      <c r="F5" t="s">
+        <v>108</v>
+      </c>
+      <c r="G5" t="s">
+        <v>93</v>
+      </c>
+      <c r="H5" t="s">
         <v>89</v>
       </c>
-      <c r="B5" t="s">
+      <c r="I5" t="s">
         <v>90</v>
       </c>
-      <c r="C5" t="s">
-        <v>91</v>
-      </c>
-      <c r="D5" t="s">
-        <v>91</v>
-      </c>
-      <c r="E5" t="s">
-        <v>92</v>
-      </c>
-      <c r="F5" t="s">
-        <v>91</v>
-      </c>
-      <c r="G5" t="s">
-        <v>93</v>
-      </c>
-      <c r="H5" t="s">
+      <c r="J5" t="s">
+        <v>91</v>
+      </c>
+      <c r="K5" t="s">
+        <v>91</v>
+      </c>
+      <c r="L5" t="s">
+        <v>92</v>
+      </c>
+      <c r="M5" t="s">
+        <v>91</v>
+      </c>
+      <c r="N5" t="s">
+        <v>93</v>
+      </c>
+      <c r="O5" t="s">
         <v>94</v>
       </c>
-      <c r="I5" t="s">
+      <c r="P5" t="s">
         <v>95</v>
       </c>
-      <c r="J5" t="s">
-        <v>91</v>
-      </c>
-      <c r="K5" t="s">
-        <v>91</v>
-      </c>
-      <c r="L5" t="s">
-        <v>92</v>
-      </c>
-      <c r="M5" t="s">
-        <v>91</v>
-      </c>
-      <c r="N5" t="s">
-        <v>93</v>
-      </c>
-      <c r="O5" t="s">
+      <c r="Q5" t="s">
+        <v>91</v>
+      </c>
+      <c r="R5" t="s">
+        <v>91</v>
+      </c>
+      <c r="S5" t="s">
+        <v>92</v>
+      </c>
+      <c r="T5" t="s">
+        <v>91</v>
+      </c>
+      <c r="U5" t="s">
+        <v>93</v>
+      </c>
+      <c r="V5" t="s">
         <v>96</v>
       </c>
-      <c r="P5" t="s">
+      <c r="W5" t="s">
         <v>97</v>
       </c>
-      <c r="Q5" t="s">
-        <v>91</v>
-      </c>
-      <c r="R5" t="s">
-        <v>91</v>
-      </c>
-      <c r="S5" t="s">
-        <v>92</v>
-      </c>
-      <c r="T5" t="s">
-        <v>91</v>
-      </c>
-      <c r="U5" t="s">
-        <v>93</v>
-      </c>
-      <c r="V5" t="s">
+      <c r="X5" t="s">
+        <v>91</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>91</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>92</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>91</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>93</v>
+      </c>
+      <c r="AC5" t="s">
         <v>98</v>
       </c>
-      <c r="W5" t="s">
+      <c r="AD5" t="s">
         <v>99</v>
       </c>
-      <c r="X5" t="s">
-        <v>91</v>
-      </c>
-      <c r="Y5" t="s">
-        <v>91</v>
-      </c>
-      <c r="Z5" t="s">
-        <v>92</v>
-      </c>
-      <c r="AA5" t="s">
-        <v>91</v>
-      </c>
-      <c r="AB5" t="s">
-        <v>93</v>
-      </c>
-      <c r="AC5" t="s">
+      <c r="AE5" t="s">
+        <v>91</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>91</v>
+      </c>
+      <c r="AG5" t="s">
+        <v>92</v>
+      </c>
+      <c r="AH5" t="s">
+        <v>91</v>
+      </c>
+      <c r="AI5" t="s">
+        <v>93</v>
+      </c>
+      <c r="AJ5" t="s">
         <v>100</v>
       </c>
-      <c r="AD5" t="s">
+      <c r="AK5" t="s">
         <v>101</v>
       </c>
-      <c r="AE5" t="s">
-        <v>91</v>
-      </c>
-      <c r="AF5" t="s">
-        <v>91</v>
-      </c>
-      <c r="AG5" t="s">
-        <v>92</v>
-      </c>
-      <c r="AH5" t="s">
-        <v>91</v>
-      </c>
-      <c r="AI5" t="s">
-        <v>93</v>
-      </c>
-      <c r="AJ5" t="s">
+      <c r="AL5" t="s">
+        <v>91</v>
+      </c>
+      <c r="AM5" t="s">
+        <v>91</v>
+      </c>
+      <c r="AN5" t="s">
+        <v>92</v>
+      </c>
+      <c r="AO5" t="s">
+        <v>91</v>
+      </c>
+      <c r="AP5" t="s">
+        <v>93</v>
+      </c>
+      <c r="AQ5" t="s">
         <v>102</v>
       </c>
-      <c r="AK5" t="s">
+      <c r="AR5" t="s">
         <v>103</v>
       </c>
-      <c r="AL5" t="s">
-        <v>91</v>
-      </c>
-      <c r="AM5" t="s">
-        <v>91</v>
-      </c>
-      <c r="AN5" t="s">
-        <v>92</v>
-      </c>
-      <c r="AO5" t="s">
-        <v>91</v>
-      </c>
-      <c r="AP5" t="s">
-        <v>93</v>
-      </c>
-      <c r="AQ5" t="s">
+      <c r="AS5" t="s">
+        <v>91</v>
+      </c>
+      <c r="AT5" t="s">
+        <v>91</v>
+      </c>
+      <c r="AU5" t="s">
+        <v>92</v>
+      </c>
+      <c r="AV5" t="s">
+        <v>91</v>
+      </c>
+      <c r="AW5" t="s">
+        <v>93</v>
+      </c>
+      <c r="AX5" t="s">
         <v>104</v>
-      </c>
-      <c r="AR5" t="s">
-        <v>105</v>
-      </c>
-      <c r="AS5" t="s">
-        <v>106</v>
-      </c>
-      <c r="AT5" t="s">
-        <v>106</v>
-      </c>
-      <c r="AU5" t="s">
-        <v>107</v>
-      </c>
-      <c r="AV5" t="s">
-        <v>108</v>
-      </c>
-      <c r="AW5" t="s">
-        <v>93</v>
-      </c>
-      <c r="AX5" t="s">
-        <v>109</v>
       </c>
       <c r="AY5" t="s">
         <v>105</v>
@@ -2554,43 +2557,43 @@
         <v>93</v>
       </c>
       <c r="BE5" t="s">
+        <v>109</v>
+      </c>
+      <c r="BF5" t="s">
+        <v>105</v>
+      </c>
+      <c r="BG5" t="s">
+        <v>106</v>
+      </c>
+      <c r="BH5" t="s">
+        <v>106</v>
+      </c>
+      <c r="BI5" t="s">
+        <v>107</v>
+      </c>
+      <c r="BJ5" t="s">
+        <v>108</v>
+      </c>
+      <c r="BK5" t="s">
+        <v>93</v>
+      </c>
+      <c r="BL5" t="s">
         <v>110</v>
       </c>
-      <c r="BF5" t="s">
+      <c r="BM5" t="s">
         <v>111</v>
       </c>
-      <c r="BG5" t="s">
-        <v>91</v>
-      </c>
-      <c r="BH5" t="s">
-        <v>91</v>
-      </c>
-      <c r="BI5" t="s">
-        <v>92</v>
-      </c>
-      <c r="BJ5" t="s">
-        <v>91</v>
-      </c>
-      <c r="BK5" t="s">
-        <v>93</v>
-      </c>
-      <c r="BL5" t="s">
-        <v>112</v>
-      </c>
-      <c r="BM5" t="s">
-        <v>113</v>
-      </c>
       <c r="BN5" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="BO5" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="BP5" t="s">
         <v>92</v>
       </c>
       <c r="BQ5" t="s">
-        <v>108</v>
+        <v>91</v>
       </c>
       <c r="BR5" t="s">
         <v>93</v>
@@ -2598,154 +2601,154 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
+        <v>114</v>
+      </c>
+      <c r="B6" t="s">
+        <v>113</v>
+      </c>
+      <c r="C6" t="s">
+        <v>106</v>
+      </c>
+      <c r="D6" t="s">
+        <v>106</v>
+      </c>
+      <c r="E6" t="s">
+        <v>92</v>
+      </c>
+      <c r="F6" t="s">
+        <v>108</v>
+      </c>
+      <c r="G6" t="s">
+        <v>93</v>
+      </c>
+      <c r="H6" t="s">
         <v>89</v>
       </c>
-      <c r="B6" t="s">
+      <c r="I6" t="s">
         <v>90</v>
       </c>
-      <c r="C6" t="s">
-        <v>91</v>
-      </c>
-      <c r="D6" t="s">
-        <v>91</v>
-      </c>
-      <c r="E6" t="s">
-        <v>92</v>
-      </c>
-      <c r="F6" t="s">
-        <v>91</v>
-      </c>
-      <c r="G6" t="s">
-        <v>93</v>
-      </c>
-      <c r="H6" t="s">
+      <c r="J6" t="s">
+        <v>91</v>
+      </c>
+      <c r="K6" t="s">
+        <v>91</v>
+      </c>
+      <c r="L6" t="s">
+        <v>92</v>
+      </c>
+      <c r="M6" t="s">
+        <v>91</v>
+      </c>
+      <c r="N6" t="s">
+        <v>93</v>
+      </c>
+      <c r="O6" t="s">
         <v>94</v>
       </c>
-      <c r="I6" t="s">
+      <c r="P6" t="s">
         <v>95</v>
       </c>
-      <c r="J6" t="s">
-        <v>91</v>
-      </c>
-      <c r="K6" t="s">
-        <v>91</v>
-      </c>
-      <c r="L6" t="s">
-        <v>92</v>
-      </c>
-      <c r="M6" t="s">
-        <v>91</v>
-      </c>
-      <c r="N6" t="s">
-        <v>93</v>
-      </c>
-      <c r="O6" t="s">
+      <c r="Q6" t="s">
+        <v>91</v>
+      </c>
+      <c r="R6" t="s">
+        <v>91</v>
+      </c>
+      <c r="S6" t="s">
+        <v>92</v>
+      </c>
+      <c r="T6" t="s">
+        <v>91</v>
+      </c>
+      <c r="U6" t="s">
+        <v>93</v>
+      </c>
+      <c r="V6" t="s">
         <v>96</v>
       </c>
-      <c r="P6" t="s">
+      <c r="W6" t="s">
         <v>97</v>
       </c>
-      <c r="Q6" t="s">
-        <v>91</v>
-      </c>
-      <c r="R6" t="s">
-        <v>91</v>
-      </c>
-      <c r="S6" t="s">
-        <v>92</v>
-      </c>
-      <c r="T6" t="s">
-        <v>91</v>
-      </c>
-      <c r="U6" t="s">
-        <v>93</v>
-      </c>
-      <c r="V6" t="s">
+      <c r="X6" t="s">
+        <v>91</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>91</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>92</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>91</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>93</v>
+      </c>
+      <c r="AC6" t="s">
         <v>98</v>
       </c>
-      <c r="W6" t="s">
+      <c r="AD6" t="s">
         <v>99</v>
       </c>
-      <c r="X6" t="s">
-        <v>91</v>
-      </c>
-      <c r="Y6" t="s">
-        <v>91</v>
-      </c>
-      <c r="Z6" t="s">
-        <v>92</v>
-      </c>
-      <c r="AA6" t="s">
-        <v>91</v>
-      </c>
-      <c r="AB6" t="s">
-        <v>93</v>
-      </c>
-      <c r="AC6" t="s">
+      <c r="AE6" t="s">
+        <v>91</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>91</v>
+      </c>
+      <c r="AG6" t="s">
+        <v>92</v>
+      </c>
+      <c r="AH6" t="s">
+        <v>91</v>
+      </c>
+      <c r="AI6" t="s">
+        <v>93</v>
+      </c>
+      <c r="AJ6" t="s">
         <v>100</v>
       </c>
-      <c r="AD6" t="s">
+      <c r="AK6" t="s">
         <v>101</v>
       </c>
-      <c r="AE6" t="s">
-        <v>91</v>
-      </c>
-      <c r="AF6" t="s">
-        <v>91</v>
-      </c>
-      <c r="AG6" t="s">
-        <v>92</v>
-      </c>
-      <c r="AH6" t="s">
-        <v>91</v>
-      </c>
-      <c r="AI6" t="s">
-        <v>93</v>
-      </c>
-      <c r="AJ6" t="s">
+      <c r="AL6" t="s">
+        <v>91</v>
+      </c>
+      <c r="AM6" t="s">
+        <v>91</v>
+      </c>
+      <c r="AN6" t="s">
+        <v>92</v>
+      </c>
+      <c r="AO6" t="s">
+        <v>91</v>
+      </c>
+      <c r="AP6" t="s">
+        <v>93</v>
+      </c>
+      <c r="AQ6" t="s">
         <v>102</v>
       </c>
-      <c r="AK6" t="s">
+      <c r="AR6" t="s">
         <v>103</v>
       </c>
-      <c r="AL6" t="s">
-        <v>91</v>
-      </c>
-      <c r="AM6" t="s">
-        <v>91</v>
-      </c>
-      <c r="AN6" t="s">
-        <v>92</v>
-      </c>
-      <c r="AO6" t="s">
-        <v>91</v>
-      </c>
-      <c r="AP6" t="s">
-        <v>93</v>
-      </c>
-      <c r="AQ6" t="s">
+      <c r="AS6" t="s">
+        <v>91</v>
+      </c>
+      <c r="AT6" t="s">
+        <v>91</v>
+      </c>
+      <c r="AU6" t="s">
+        <v>92</v>
+      </c>
+      <c r="AV6" t="s">
+        <v>91</v>
+      </c>
+      <c r="AW6" t="s">
+        <v>93</v>
+      </c>
+      <c r="AX6" t="s">
         <v>104</v>
-      </c>
-      <c r="AR6" t="s">
-        <v>105</v>
-      </c>
-      <c r="AS6" t="s">
-        <v>106</v>
-      </c>
-      <c r="AT6" t="s">
-        <v>106</v>
-      </c>
-      <c r="AU6" t="s">
-        <v>107</v>
-      </c>
-      <c r="AV6" t="s">
-        <v>108</v>
-      </c>
-      <c r="AW6" t="s">
-        <v>93</v>
-      </c>
-      <c r="AX6" t="s">
-        <v>109</v>
       </c>
       <c r="AY6" t="s">
         <v>105</v>
@@ -2766,43 +2769,43 @@
         <v>93</v>
       </c>
       <c r="BE6" t="s">
+        <v>109</v>
+      </c>
+      <c r="BF6" t="s">
+        <v>105</v>
+      </c>
+      <c r="BG6" t="s">
+        <v>106</v>
+      </c>
+      <c r="BH6" t="s">
+        <v>106</v>
+      </c>
+      <c r="BI6" t="s">
+        <v>107</v>
+      </c>
+      <c r="BJ6" t="s">
+        <v>108</v>
+      </c>
+      <c r="BK6" t="s">
+        <v>93</v>
+      </c>
+      <c r="BL6" t="s">
         <v>110</v>
       </c>
-      <c r="BF6" t="s">
+      <c r="BM6" t="s">
         <v>111</v>
       </c>
-      <c r="BG6" t="s">
-        <v>91</v>
-      </c>
-      <c r="BH6" t="s">
-        <v>91</v>
-      </c>
-      <c r="BI6" t="s">
-        <v>92</v>
-      </c>
-      <c r="BJ6" t="s">
-        <v>91</v>
-      </c>
-      <c r="BK6" t="s">
-        <v>93</v>
-      </c>
-      <c r="BL6" t="s">
-        <v>112</v>
-      </c>
-      <c r="BM6" t="s">
-        <v>113</v>
-      </c>
       <c r="BN6" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="BO6" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="BP6" t="s">
         <v>92</v>
       </c>
       <c r="BQ6" t="s">
-        <v>108</v>
+        <v>91</v>
       </c>
       <c r="BR6" t="s">
         <v>93</v>
@@ -2810,154 +2813,154 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
+        <v>114</v>
+      </c>
+      <c r="B7" t="s">
+        <v>113</v>
+      </c>
+      <c r="C7" t="s">
+        <v>106</v>
+      </c>
+      <c r="D7" t="s">
+        <v>106</v>
+      </c>
+      <c r="E7" t="s">
+        <v>92</v>
+      </c>
+      <c r="F7" t="s">
+        <v>108</v>
+      </c>
+      <c r="G7" t="s">
+        <v>93</v>
+      </c>
+      <c r="H7" t="s">
         <v>89</v>
       </c>
-      <c r="B7" t="s">
+      <c r="I7" t="s">
         <v>90</v>
       </c>
-      <c r="C7" t="s">
-        <v>91</v>
-      </c>
-      <c r="D7" t="s">
-        <v>91</v>
-      </c>
-      <c r="E7" t="s">
-        <v>92</v>
-      </c>
-      <c r="F7" t="s">
-        <v>91</v>
-      </c>
-      <c r="G7" t="s">
-        <v>93</v>
-      </c>
-      <c r="H7" t="s">
+      <c r="J7" t="s">
+        <v>91</v>
+      </c>
+      <c r="K7" t="s">
+        <v>91</v>
+      </c>
+      <c r="L7" t="s">
+        <v>92</v>
+      </c>
+      <c r="M7" t="s">
+        <v>91</v>
+      </c>
+      <c r="N7" t="s">
+        <v>93</v>
+      </c>
+      <c r="O7" t="s">
         <v>94</v>
       </c>
-      <c r="I7" t="s">
+      <c r="P7" t="s">
         <v>95</v>
       </c>
-      <c r="J7" t="s">
-        <v>91</v>
-      </c>
-      <c r="K7" t="s">
-        <v>91</v>
-      </c>
-      <c r="L7" t="s">
-        <v>92</v>
-      </c>
-      <c r="M7" t="s">
-        <v>91</v>
-      </c>
-      <c r="N7" t="s">
-        <v>93</v>
-      </c>
-      <c r="O7" t="s">
+      <c r="Q7" t="s">
+        <v>91</v>
+      </c>
+      <c r="R7" t="s">
+        <v>91</v>
+      </c>
+      <c r="S7" t="s">
+        <v>92</v>
+      </c>
+      <c r="T7" t="s">
+        <v>91</v>
+      </c>
+      <c r="U7" t="s">
+        <v>93</v>
+      </c>
+      <c r="V7" t="s">
         <v>96</v>
       </c>
-      <c r="P7" t="s">
+      <c r="W7" t="s">
         <v>97</v>
       </c>
-      <c r="Q7" t="s">
-        <v>91</v>
-      </c>
-      <c r="R7" t="s">
-        <v>91</v>
-      </c>
-      <c r="S7" t="s">
-        <v>92</v>
-      </c>
-      <c r="T7" t="s">
-        <v>91</v>
-      </c>
-      <c r="U7" t="s">
-        <v>93</v>
-      </c>
-      <c r="V7" t="s">
+      <c r="X7" t="s">
+        <v>91</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>91</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>92</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>91</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>93</v>
+      </c>
+      <c r="AC7" t="s">
         <v>98</v>
       </c>
-      <c r="W7" t="s">
+      <c r="AD7" t="s">
         <v>99</v>
       </c>
-      <c r="X7" t="s">
-        <v>91</v>
-      </c>
-      <c r="Y7" t="s">
-        <v>91</v>
-      </c>
-      <c r="Z7" t="s">
-        <v>92</v>
-      </c>
-      <c r="AA7" t="s">
-        <v>91</v>
-      </c>
-      <c r="AB7" t="s">
-        <v>93</v>
-      </c>
-      <c r="AC7" t="s">
+      <c r="AE7" t="s">
+        <v>91</v>
+      </c>
+      <c r="AF7" t="s">
+        <v>91</v>
+      </c>
+      <c r="AG7" t="s">
+        <v>92</v>
+      </c>
+      <c r="AH7" t="s">
+        <v>91</v>
+      </c>
+      <c r="AI7" t="s">
+        <v>93</v>
+      </c>
+      <c r="AJ7" t="s">
         <v>100</v>
       </c>
-      <c r="AD7" t="s">
+      <c r="AK7" t="s">
         <v>101</v>
       </c>
-      <c r="AE7" t="s">
-        <v>91</v>
-      </c>
-      <c r="AF7" t="s">
-        <v>91</v>
-      </c>
-      <c r="AG7" t="s">
-        <v>92</v>
-      </c>
-      <c r="AH7" t="s">
-        <v>91</v>
-      </c>
-      <c r="AI7" t="s">
-        <v>93</v>
-      </c>
-      <c r="AJ7" t="s">
+      <c r="AL7" t="s">
+        <v>91</v>
+      </c>
+      <c r="AM7" t="s">
+        <v>91</v>
+      </c>
+      <c r="AN7" t="s">
+        <v>92</v>
+      </c>
+      <c r="AO7" t="s">
+        <v>91</v>
+      </c>
+      <c r="AP7" t="s">
+        <v>93</v>
+      </c>
+      <c r="AQ7" t="s">
         <v>102</v>
       </c>
-      <c r="AK7" t="s">
+      <c r="AR7" t="s">
         <v>103</v>
       </c>
-      <c r="AL7" t="s">
-        <v>91</v>
-      </c>
-      <c r="AM7" t="s">
-        <v>91</v>
-      </c>
-      <c r="AN7" t="s">
-        <v>92</v>
-      </c>
-      <c r="AO7" t="s">
-        <v>91</v>
-      </c>
-      <c r="AP7" t="s">
-        <v>93</v>
-      </c>
-      <c r="AQ7" t="s">
+      <c r="AS7" t="s">
+        <v>91</v>
+      </c>
+      <c r="AT7" t="s">
+        <v>91</v>
+      </c>
+      <c r="AU7" t="s">
+        <v>92</v>
+      </c>
+      <c r="AV7" t="s">
+        <v>91</v>
+      </c>
+      <c r="AW7" t="s">
+        <v>93</v>
+      </c>
+      <c r="AX7" t="s">
         <v>104</v>
-      </c>
-      <c r="AR7" t="s">
-        <v>105</v>
-      </c>
-      <c r="AS7" t="s">
-        <v>106</v>
-      </c>
-      <c r="AT7" t="s">
-        <v>106</v>
-      </c>
-      <c r="AU7" t="s">
-        <v>107</v>
-      </c>
-      <c r="AV7" t="s">
-        <v>108</v>
-      </c>
-      <c r="AW7" t="s">
-        <v>93</v>
-      </c>
-      <c r="AX7" t="s">
-        <v>109</v>
       </c>
       <c r="AY7" t="s">
         <v>105</v>
@@ -2978,43 +2981,43 @@
         <v>93</v>
       </c>
       <c r="BE7" t="s">
+        <v>109</v>
+      </c>
+      <c r="BF7" t="s">
+        <v>105</v>
+      </c>
+      <c r="BG7" t="s">
+        <v>106</v>
+      </c>
+      <c r="BH7" t="s">
+        <v>106</v>
+      </c>
+      <c r="BI7" t="s">
+        <v>107</v>
+      </c>
+      <c r="BJ7" t="s">
+        <v>108</v>
+      </c>
+      <c r="BK7" t="s">
+        <v>93</v>
+      </c>
+      <c r="BL7" t="s">
         <v>110</v>
       </c>
-      <c r="BF7" t="s">
+      <c r="BM7" t="s">
         <v>111</v>
       </c>
-      <c r="BG7" t="s">
-        <v>91</v>
-      </c>
-      <c r="BH7" t="s">
-        <v>91</v>
-      </c>
-      <c r="BI7" t="s">
-        <v>92</v>
-      </c>
-      <c r="BJ7" t="s">
-        <v>91</v>
-      </c>
-      <c r="BK7" t="s">
-        <v>93</v>
-      </c>
-      <c r="BL7" t="s">
-        <v>112</v>
-      </c>
-      <c r="BM7" t="s">
-        <v>113</v>
-      </c>
       <c r="BN7" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="BO7" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="BP7" t="s">
         <v>92</v>
       </c>
       <c r="BQ7" t="s">
-        <v>108</v>
+        <v>91</v>
       </c>
       <c r="BR7" t="s">
         <v>93</v>
@@ -3022,154 +3025,154 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
+        <v>114</v>
+      </c>
+      <c r="B8" t="s">
+        <v>113</v>
+      </c>
+      <c r="C8" t="s">
+        <v>106</v>
+      </c>
+      <c r="D8" t="s">
+        <v>106</v>
+      </c>
+      <c r="E8" t="s">
+        <v>92</v>
+      </c>
+      <c r="F8" t="s">
+        <v>108</v>
+      </c>
+      <c r="G8" t="s">
+        <v>93</v>
+      </c>
+      <c r="H8" t="s">
         <v>89</v>
       </c>
-      <c r="B8" t="s">
+      <c r="I8" t="s">
         <v>90</v>
       </c>
-      <c r="C8" t="s">
-        <v>91</v>
-      </c>
-      <c r="D8" t="s">
-        <v>91</v>
-      </c>
-      <c r="E8" t="s">
-        <v>92</v>
-      </c>
-      <c r="F8" t="s">
-        <v>91</v>
-      </c>
-      <c r="G8" t="s">
-        <v>93</v>
-      </c>
-      <c r="H8" t="s">
+      <c r="J8" t="s">
+        <v>91</v>
+      </c>
+      <c r="K8" t="s">
+        <v>91</v>
+      </c>
+      <c r="L8" t="s">
+        <v>92</v>
+      </c>
+      <c r="M8" t="s">
+        <v>91</v>
+      </c>
+      <c r="N8" t="s">
+        <v>93</v>
+      </c>
+      <c r="O8" t="s">
         <v>94</v>
       </c>
-      <c r="I8" t="s">
+      <c r="P8" t="s">
         <v>95</v>
       </c>
-      <c r="J8" t="s">
-        <v>91</v>
-      </c>
-      <c r="K8" t="s">
-        <v>91</v>
-      </c>
-      <c r="L8" t="s">
-        <v>92</v>
-      </c>
-      <c r="M8" t="s">
-        <v>91</v>
-      </c>
-      <c r="N8" t="s">
-        <v>93</v>
-      </c>
-      <c r="O8" t="s">
+      <c r="Q8" t="s">
+        <v>91</v>
+      </c>
+      <c r="R8" t="s">
+        <v>91</v>
+      </c>
+      <c r="S8" t="s">
+        <v>92</v>
+      </c>
+      <c r="T8" t="s">
+        <v>91</v>
+      </c>
+      <c r="U8" t="s">
+        <v>93</v>
+      </c>
+      <c r="V8" t="s">
         <v>96</v>
       </c>
-      <c r="P8" t="s">
+      <c r="W8" t="s">
         <v>97</v>
       </c>
-      <c r="Q8" t="s">
-        <v>91</v>
-      </c>
-      <c r="R8" t="s">
-        <v>91</v>
-      </c>
-      <c r="S8" t="s">
-        <v>92</v>
-      </c>
-      <c r="T8" t="s">
-        <v>91</v>
-      </c>
-      <c r="U8" t="s">
-        <v>93</v>
-      </c>
-      <c r="V8" t="s">
+      <c r="X8" t="s">
+        <v>91</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>91</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>92</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>91</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>93</v>
+      </c>
+      <c r="AC8" t="s">
         <v>98</v>
       </c>
-      <c r="W8" t="s">
+      <c r="AD8" t="s">
         <v>99</v>
       </c>
-      <c r="X8" t="s">
-        <v>91</v>
-      </c>
-      <c r="Y8" t="s">
-        <v>91</v>
-      </c>
-      <c r="Z8" t="s">
-        <v>92</v>
-      </c>
-      <c r="AA8" t="s">
-        <v>91</v>
-      </c>
-      <c r="AB8" t="s">
-        <v>93</v>
-      </c>
-      <c r="AC8" t="s">
+      <c r="AE8" t="s">
+        <v>91</v>
+      </c>
+      <c r="AF8" t="s">
+        <v>91</v>
+      </c>
+      <c r="AG8" t="s">
+        <v>92</v>
+      </c>
+      <c r="AH8" t="s">
+        <v>91</v>
+      </c>
+      <c r="AI8" t="s">
+        <v>93</v>
+      </c>
+      <c r="AJ8" t="s">
         <v>100</v>
       </c>
-      <c r="AD8" t="s">
+      <c r="AK8" t="s">
         <v>101</v>
       </c>
-      <c r="AE8" t="s">
-        <v>91</v>
-      </c>
-      <c r="AF8" t="s">
-        <v>91</v>
-      </c>
-      <c r="AG8" t="s">
-        <v>92</v>
-      </c>
-      <c r="AH8" t="s">
-        <v>91</v>
-      </c>
-      <c r="AI8" t="s">
-        <v>93</v>
-      </c>
-      <c r="AJ8" t="s">
+      <c r="AL8" t="s">
+        <v>91</v>
+      </c>
+      <c r="AM8" t="s">
+        <v>91</v>
+      </c>
+      <c r="AN8" t="s">
+        <v>92</v>
+      </c>
+      <c r="AO8" t="s">
+        <v>91</v>
+      </c>
+      <c r="AP8" t="s">
+        <v>93</v>
+      </c>
+      <c r="AQ8" t="s">
         <v>102</v>
       </c>
-      <c r="AK8" t="s">
+      <c r="AR8" t="s">
         <v>103</v>
       </c>
-      <c r="AL8" t="s">
-        <v>91</v>
-      </c>
-      <c r="AM8" t="s">
-        <v>91</v>
-      </c>
-      <c r="AN8" t="s">
-        <v>92</v>
-      </c>
-      <c r="AO8" t="s">
-        <v>91</v>
-      </c>
-      <c r="AP8" t="s">
-        <v>93</v>
-      </c>
-      <c r="AQ8" t="s">
+      <c r="AS8" t="s">
+        <v>91</v>
+      </c>
+      <c r="AT8" t="s">
+        <v>91</v>
+      </c>
+      <c r="AU8" t="s">
+        <v>92</v>
+      </c>
+      <c r="AV8" t="s">
+        <v>91</v>
+      </c>
+      <c r="AW8" t="s">
+        <v>93</v>
+      </c>
+      <c r="AX8" t="s">
         <v>104</v>
-      </c>
-      <c r="AR8" t="s">
-        <v>105</v>
-      </c>
-      <c r="AS8" t="s">
-        <v>106</v>
-      </c>
-      <c r="AT8" t="s">
-        <v>106</v>
-      </c>
-      <c r="AU8" t="s">
-        <v>107</v>
-      </c>
-      <c r="AV8" t="s">
-        <v>108</v>
-      </c>
-      <c r="AW8" t="s">
-        <v>93</v>
-      </c>
-      <c r="AX8" t="s">
-        <v>109</v>
       </c>
       <c r="AY8" t="s">
         <v>105</v>
@@ -3190,43 +3193,43 @@
         <v>93</v>
       </c>
       <c r="BE8" t="s">
+        <v>109</v>
+      </c>
+      <c r="BF8" t="s">
+        <v>105</v>
+      </c>
+      <c r="BG8" t="s">
+        <v>106</v>
+      </c>
+      <c r="BH8" t="s">
+        <v>106</v>
+      </c>
+      <c r="BI8" t="s">
+        <v>107</v>
+      </c>
+      <c r="BJ8" t="s">
+        <v>108</v>
+      </c>
+      <c r="BK8" t="s">
+        <v>93</v>
+      </c>
+      <c r="BL8" t="s">
         <v>110</v>
       </c>
-      <c r="BF8" t="s">
+      <c r="BM8" t="s">
         <v>111</v>
       </c>
-      <c r="BG8" t="s">
-        <v>91</v>
-      </c>
-      <c r="BH8" t="s">
-        <v>91</v>
-      </c>
-      <c r="BI8" t="s">
-        <v>92</v>
-      </c>
-      <c r="BJ8" t="s">
-        <v>91</v>
-      </c>
-      <c r="BK8" t="s">
-        <v>93</v>
-      </c>
-      <c r="BL8" t="s">
-        <v>112</v>
-      </c>
-      <c r="BM8" t="s">
-        <v>113</v>
-      </c>
       <c r="BN8" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="BO8" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="BP8" t="s">
         <v>92</v>
       </c>
       <c r="BQ8" t="s">
-        <v>108</v>
+        <v>91</v>
       </c>
       <c r="BR8" t="s">
         <v>93</v>
@@ -3234,154 +3237,154 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
+        <v>114</v>
+      </c>
+      <c r="B9" t="s">
+        <v>113</v>
+      </c>
+      <c r="C9" t="s">
+        <v>106</v>
+      </c>
+      <c r="D9" t="s">
+        <v>106</v>
+      </c>
+      <c r="E9" t="s">
+        <v>92</v>
+      </c>
+      <c r="F9" t="s">
+        <v>108</v>
+      </c>
+      <c r="G9" t="s">
+        <v>93</v>
+      </c>
+      <c r="H9" t="s">
         <v>89</v>
       </c>
-      <c r="B9" t="s">
+      <c r="I9" t="s">
         <v>90</v>
       </c>
-      <c r="C9" t="s">
-        <v>91</v>
-      </c>
-      <c r="D9" t="s">
-        <v>91</v>
-      </c>
-      <c r="E9" t="s">
-        <v>92</v>
-      </c>
-      <c r="F9" t="s">
-        <v>91</v>
-      </c>
-      <c r="G9" t="s">
-        <v>93</v>
-      </c>
-      <c r="H9" t="s">
+      <c r="J9" t="s">
+        <v>91</v>
+      </c>
+      <c r="K9" t="s">
+        <v>91</v>
+      </c>
+      <c r="L9" t="s">
+        <v>92</v>
+      </c>
+      <c r="M9" t="s">
+        <v>91</v>
+      </c>
+      <c r="N9" t="s">
+        <v>93</v>
+      </c>
+      <c r="O9" t="s">
         <v>94</v>
       </c>
-      <c r="I9" t="s">
+      <c r="P9" t="s">
         <v>95</v>
       </c>
-      <c r="J9" t="s">
-        <v>91</v>
-      </c>
-      <c r="K9" t="s">
-        <v>91</v>
-      </c>
-      <c r="L9" t="s">
-        <v>92</v>
-      </c>
-      <c r="M9" t="s">
-        <v>91</v>
-      </c>
-      <c r="N9" t="s">
-        <v>93</v>
-      </c>
-      <c r="O9" t="s">
+      <c r="Q9" t="s">
+        <v>91</v>
+      </c>
+      <c r="R9" t="s">
+        <v>91</v>
+      </c>
+      <c r="S9" t="s">
+        <v>92</v>
+      </c>
+      <c r="T9" t="s">
+        <v>91</v>
+      </c>
+      <c r="U9" t="s">
+        <v>93</v>
+      </c>
+      <c r="V9" t="s">
         <v>96</v>
       </c>
-      <c r="P9" t="s">
+      <c r="W9" t="s">
         <v>97</v>
       </c>
-      <c r="Q9" t="s">
-        <v>91</v>
-      </c>
-      <c r="R9" t="s">
-        <v>91</v>
-      </c>
-      <c r="S9" t="s">
-        <v>92</v>
-      </c>
-      <c r="T9" t="s">
-        <v>91</v>
-      </c>
-      <c r="U9" t="s">
-        <v>93</v>
-      </c>
-      <c r="V9" t="s">
+      <c r="X9" t="s">
+        <v>91</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>91</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>92</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>91</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>93</v>
+      </c>
+      <c r="AC9" t="s">
         <v>98</v>
       </c>
-      <c r="W9" t="s">
+      <c r="AD9" t="s">
         <v>99</v>
       </c>
-      <c r="X9" t="s">
-        <v>91</v>
-      </c>
-      <c r="Y9" t="s">
-        <v>91</v>
-      </c>
-      <c r="Z9" t="s">
-        <v>92</v>
-      </c>
-      <c r="AA9" t="s">
-        <v>91</v>
-      </c>
-      <c r="AB9" t="s">
-        <v>93</v>
-      </c>
-      <c r="AC9" t="s">
+      <c r="AE9" t="s">
+        <v>91</v>
+      </c>
+      <c r="AF9" t="s">
+        <v>91</v>
+      </c>
+      <c r="AG9" t="s">
+        <v>92</v>
+      </c>
+      <c r="AH9" t="s">
+        <v>91</v>
+      </c>
+      <c r="AI9" t="s">
+        <v>93</v>
+      </c>
+      <c r="AJ9" t="s">
         <v>100</v>
       </c>
-      <c r="AD9" t="s">
+      <c r="AK9" t="s">
         <v>101</v>
       </c>
-      <c r="AE9" t="s">
-        <v>91</v>
-      </c>
-      <c r="AF9" t="s">
-        <v>91</v>
-      </c>
-      <c r="AG9" t="s">
-        <v>92</v>
-      </c>
-      <c r="AH9" t="s">
-        <v>91</v>
-      </c>
-      <c r="AI9" t="s">
-        <v>93</v>
-      </c>
-      <c r="AJ9" t="s">
+      <c r="AL9" t="s">
+        <v>91</v>
+      </c>
+      <c r="AM9" t="s">
+        <v>91</v>
+      </c>
+      <c r="AN9" t="s">
+        <v>92</v>
+      </c>
+      <c r="AO9" t="s">
+        <v>91</v>
+      </c>
+      <c r="AP9" t="s">
+        <v>93</v>
+      </c>
+      <c r="AQ9" t="s">
         <v>102</v>
       </c>
-      <c r="AK9" t="s">
+      <c r="AR9" t="s">
         <v>103</v>
       </c>
-      <c r="AL9" t="s">
-        <v>91</v>
-      </c>
-      <c r="AM9" t="s">
-        <v>91</v>
-      </c>
-      <c r="AN9" t="s">
-        <v>92</v>
-      </c>
-      <c r="AO9" t="s">
-        <v>91</v>
-      </c>
-      <c r="AP9" t="s">
-        <v>93</v>
-      </c>
-      <c r="AQ9" t="s">
+      <c r="AS9" t="s">
+        <v>91</v>
+      </c>
+      <c r="AT9" t="s">
+        <v>91</v>
+      </c>
+      <c r="AU9" t="s">
+        <v>92</v>
+      </c>
+      <c r="AV9" t="s">
+        <v>91</v>
+      </c>
+      <c r="AW9" t="s">
+        <v>93</v>
+      </c>
+      <c r="AX9" t="s">
         <v>104</v>
-      </c>
-      <c r="AR9" t="s">
-        <v>105</v>
-      </c>
-      <c r="AS9" t="s">
-        <v>106</v>
-      </c>
-      <c r="AT9" t="s">
-        <v>106</v>
-      </c>
-      <c r="AU9" t="s">
-        <v>107</v>
-      </c>
-      <c r="AV9" t="s">
-        <v>108</v>
-      </c>
-      <c r="AW9" t="s">
-        <v>93</v>
-      </c>
-      <c r="AX9" t="s">
-        <v>109</v>
       </c>
       <c r="AY9" t="s">
         <v>105</v>
@@ -3402,43 +3405,43 @@
         <v>93</v>
       </c>
       <c r="BE9" t="s">
+        <v>109</v>
+      </c>
+      <c r="BF9" t="s">
+        <v>105</v>
+      </c>
+      <c r="BG9" t="s">
+        <v>106</v>
+      </c>
+      <c r="BH9" t="s">
+        <v>106</v>
+      </c>
+      <c r="BI9" t="s">
+        <v>107</v>
+      </c>
+      <c r="BJ9" t="s">
+        <v>108</v>
+      </c>
+      <c r="BK9" t="s">
+        <v>93</v>
+      </c>
+      <c r="BL9" t="s">
         <v>110</v>
       </c>
-      <c r="BF9" t="s">
+      <c r="BM9" t="s">
         <v>111</v>
       </c>
-      <c r="BG9" t="s">
-        <v>91</v>
-      </c>
-      <c r="BH9" t="s">
-        <v>91</v>
-      </c>
-      <c r="BI9" t="s">
-        <v>92</v>
-      </c>
-      <c r="BJ9" t="s">
-        <v>91</v>
-      </c>
-      <c r="BK9" t="s">
-        <v>93</v>
-      </c>
-      <c r="BL9" t="s">
-        <v>112</v>
-      </c>
-      <c r="BM9" t="s">
-        <v>113</v>
-      </c>
       <c r="BN9" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="BO9" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="BP9" t="s">
         <v>92</v>
       </c>
       <c r="BQ9" t="s">
-        <v>108</v>
+        <v>91</v>
       </c>
       <c r="BR9" t="s">
         <v>93</v>
@@ -3446,154 +3449,154 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
+        <v>114</v>
+      </c>
+      <c r="B10" t="s">
+        <v>113</v>
+      </c>
+      <c r="C10" t="s">
+        <v>106</v>
+      </c>
+      <c r="D10" t="s">
+        <v>106</v>
+      </c>
+      <c r="E10" t="s">
+        <v>92</v>
+      </c>
+      <c r="F10" t="s">
+        <v>108</v>
+      </c>
+      <c r="G10" t="s">
+        <v>93</v>
+      </c>
+      <c r="H10" t="s">
         <v>89</v>
       </c>
-      <c r="B10" t="s">
+      <c r="I10" t="s">
         <v>90</v>
       </c>
-      <c r="C10" t="s">
-        <v>91</v>
-      </c>
-      <c r="D10" t="s">
-        <v>91</v>
-      </c>
-      <c r="E10" t="s">
-        <v>92</v>
-      </c>
-      <c r="F10" t="s">
-        <v>91</v>
-      </c>
-      <c r="G10" t="s">
-        <v>93</v>
-      </c>
-      <c r="H10" t="s">
+      <c r="J10" t="s">
+        <v>91</v>
+      </c>
+      <c r="K10" t="s">
+        <v>91</v>
+      </c>
+      <c r="L10" t="s">
+        <v>92</v>
+      </c>
+      <c r="M10" t="s">
+        <v>91</v>
+      </c>
+      <c r="N10" t="s">
+        <v>93</v>
+      </c>
+      <c r="O10" t="s">
         <v>94</v>
       </c>
-      <c r="I10" t="s">
+      <c r="P10" t="s">
         <v>95</v>
       </c>
-      <c r="J10" t="s">
-        <v>91</v>
-      </c>
-      <c r="K10" t="s">
-        <v>91</v>
-      </c>
-      <c r="L10" t="s">
-        <v>92</v>
-      </c>
-      <c r="M10" t="s">
-        <v>91</v>
-      </c>
-      <c r="N10" t="s">
-        <v>93</v>
-      </c>
-      <c r="O10" t="s">
+      <c r="Q10" t="s">
+        <v>91</v>
+      </c>
+      <c r="R10" t="s">
+        <v>91</v>
+      </c>
+      <c r="S10" t="s">
+        <v>92</v>
+      </c>
+      <c r="T10" t="s">
+        <v>91</v>
+      </c>
+      <c r="U10" t="s">
+        <v>93</v>
+      </c>
+      <c r="V10" t="s">
         <v>96</v>
       </c>
-      <c r="P10" t="s">
+      <c r="W10" t="s">
         <v>97</v>
       </c>
-      <c r="Q10" t="s">
-        <v>91</v>
-      </c>
-      <c r="R10" t="s">
-        <v>91</v>
-      </c>
-      <c r="S10" t="s">
-        <v>92</v>
-      </c>
-      <c r="T10" t="s">
-        <v>91</v>
-      </c>
-      <c r="U10" t="s">
-        <v>93</v>
-      </c>
-      <c r="V10" t="s">
+      <c r="X10" t="s">
+        <v>91</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>91</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>92</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>91</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>93</v>
+      </c>
+      <c r="AC10" t="s">
         <v>98</v>
       </c>
-      <c r="W10" t="s">
+      <c r="AD10" t="s">
         <v>99</v>
       </c>
-      <c r="X10" t="s">
-        <v>91</v>
-      </c>
-      <c r="Y10" t="s">
-        <v>91</v>
-      </c>
-      <c r="Z10" t="s">
-        <v>92</v>
-      </c>
-      <c r="AA10" t="s">
-        <v>91</v>
-      </c>
-      <c r="AB10" t="s">
-        <v>93</v>
-      </c>
-      <c r="AC10" t="s">
+      <c r="AE10" t="s">
+        <v>91</v>
+      </c>
+      <c r="AF10" t="s">
+        <v>91</v>
+      </c>
+      <c r="AG10" t="s">
+        <v>92</v>
+      </c>
+      <c r="AH10" t="s">
+        <v>91</v>
+      </c>
+      <c r="AI10" t="s">
+        <v>93</v>
+      </c>
+      <c r="AJ10" t="s">
         <v>100</v>
       </c>
-      <c r="AD10" t="s">
+      <c r="AK10" t="s">
         <v>101</v>
       </c>
-      <c r="AE10" t="s">
-        <v>91</v>
-      </c>
-      <c r="AF10" t="s">
-        <v>91</v>
-      </c>
-      <c r="AG10" t="s">
-        <v>92</v>
-      </c>
-      <c r="AH10" t="s">
-        <v>91</v>
-      </c>
-      <c r="AI10" t="s">
-        <v>93</v>
-      </c>
-      <c r="AJ10" t="s">
+      <c r="AL10" t="s">
+        <v>91</v>
+      </c>
+      <c r="AM10" t="s">
+        <v>91</v>
+      </c>
+      <c r="AN10" t="s">
+        <v>92</v>
+      </c>
+      <c r="AO10" t="s">
+        <v>91</v>
+      </c>
+      <c r="AP10" t="s">
+        <v>93</v>
+      </c>
+      <c r="AQ10" t="s">
         <v>102</v>
       </c>
-      <c r="AK10" t="s">
+      <c r="AR10" t="s">
         <v>103</v>
       </c>
-      <c r="AL10" t="s">
-        <v>91</v>
-      </c>
-      <c r="AM10" t="s">
-        <v>91</v>
-      </c>
-      <c r="AN10" t="s">
-        <v>92</v>
-      </c>
-      <c r="AO10" t="s">
-        <v>91</v>
-      </c>
-      <c r="AP10" t="s">
-        <v>93</v>
-      </c>
-      <c r="AQ10" t="s">
+      <c r="AS10" t="s">
+        <v>91</v>
+      </c>
+      <c r="AT10" t="s">
+        <v>91</v>
+      </c>
+      <c r="AU10" t="s">
+        <v>92</v>
+      </c>
+      <c r="AV10" t="s">
+        <v>91</v>
+      </c>
+      <c r="AW10" t="s">
+        <v>93</v>
+      </c>
+      <c r="AX10" t="s">
         <v>104</v>
-      </c>
-      <c r="AR10" t="s">
-        <v>105</v>
-      </c>
-      <c r="AS10" t="s">
-        <v>106</v>
-      </c>
-      <c r="AT10" t="s">
-        <v>106</v>
-      </c>
-      <c r="AU10" t="s">
-        <v>107</v>
-      </c>
-      <c r="AV10" t="s">
-        <v>108</v>
-      </c>
-      <c r="AW10" t="s">
-        <v>93</v>
-      </c>
-      <c r="AX10" t="s">
-        <v>109</v>
       </c>
       <c r="AY10" t="s">
         <v>105</v>
@@ -3614,43 +3617,43 @@
         <v>93</v>
       </c>
       <c r="BE10" t="s">
+        <v>109</v>
+      </c>
+      <c r="BF10" t="s">
+        <v>105</v>
+      </c>
+      <c r="BG10" t="s">
+        <v>106</v>
+      </c>
+      <c r="BH10" t="s">
+        <v>106</v>
+      </c>
+      <c r="BI10" t="s">
+        <v>107</v>
+      </c>
+      <c r="BJ10" t="s">
+        <v>108</v>
+      </c>
+      <c r="BK10" t="s">
+        <v>93</v>
+      </c>
+      <c r="BL10" t="s">
         <v>110</v>
       </c>
-      <c r="BF10" t="s">
+      <c r="BM10" t="s">
         <v>111</v>
       </c>
-      <c r="BG10" t="s">
-        <v>91</v>
-      </c>
-      <c r="BH10" t="s">
-        <v>91</v>
-      </c>
-      <c r="BI10" t="s">
-        <v>92</v>
-      </c>
-      <c r="BJ10" t="s">
-        <v>91</v>
-      </c>
-      <c r="BK10" t="s">
-        <v>93</v>
-      </c>
-      <c r="BL10" t="s">
-        <v>112</v>
-      </c>
-      <c r="BM10" t="s">
-        <v>113</v>
-      </c>
       <c r="BN10" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="BO10" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="BP10" t="s">
         <v>92</v>
       </c>
       <c r="BQ10" t="s">
-        <v>108</v>
+        <v>91</v>
       </c>
       <c r="BR10" t="s">
         <v>93</v>
@@ -3658,154 +3661,154 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
+        <v>114</v>
+      </c>
+      <c r="B11" t="s">
+        <v>113</v>
+      </c>
+      <c r="C11" t="s">
+        <v>106</v>
+      </c>
+      <c r="D11" t="s">
+        <v>106</v>
+      </c>
+      <c r="E11" t="s">
+        <v>92</v>
+      </c>
+      <c r="F11" t="s">
+        <v>108</v>
+      </c>
+      <c r="G11" t="s">
+        <v>93</v>
+      </c>
+      <c r="H11" t="s">
         <v>89</v>
       </c>
-      <c r="B11" t="s">
+      <c r="I11" t="s">
         <v>90</v>
       </c>
-      <c r="C11" t="s">
-        <v>91</v>
-      </c>
-      <c r="D11" t="s">
-        <v>91</v>
-      </c>
-      <c r="E11" t="s">
-        <v>92</v>
-      </c>
-      <c r="F11" t="s">
-        <v>91</v>
-      </c>
-      <c r="G11" t="s">
-        <v>93</v>
-      </c>
-      <c r="H11" t="s">
+      <c r="J11" t="s">
+        <v>91</v>
+      </c>
+      <c r="K11" t="s">
+        <v>91</v>
+      </c>
+      <c r="L11" t="s">
+        <v>92</v>
+      </c>
+      <c r="M11" t="s">
+        <v>91</v>
+      </c>
+      <c r="N11" t="s">
+        <v>93</v>
+      </c>
+      <c r="O11" t="s">
         <v>94</v>
       </c>
-      <c r="I11" t="s">
+      <c r="P11" t="s">
         <v>95</v>
       </c>
-      <c r="J11" t="s">
-        <v>91</v>
-      </c>
-      <c r="K11" t="s">
-        <v>91</v>
-      </c>
-      <c r="L11" t="s">
-        <v>92</v>
-      </c>
-      <c r="M11" t="s">
-        <v>91</v>
-      </c>
-      <c r="N11" t="s">
-        <v>93</v>
-      </c>
-      <c r="O11" t="s">
+      <c r="Q11" t="s">
+        <v>91</v>
+      </c>
+      <c r="R11" t="s">
+        <v>91</v>
+      </c>
+      <c r="S11" t="s">
+        <v>92</v>
+      </c>
+      <c r="T11" t="s">
+        <v>91</v>
+      </c>
+      <c r="U11" t="s">
+        <v>93</v>
+      </c>
+      <c r="V11" t="s">
         <v>96</v>
       </c>
-      <c r="P11" t="s">
+      <c r="W11" t="s">
         <v>97</v>
       </c>
-      <c r="Q11" t="s">
-        <v>91</v>
-      </c>
-      <c r="R11" t="s">
-        <v>91</v>
-      </c>
-      <c r="S11" t="s">
-        <v>92</v>
-      </c>
-      <c r="T11" t="s">
-        <v>91</v>
-      </c>
-      <c r="U11" t="s">
-        <v>93</v>
-      </c>
-      <c r="V11" t="s">
+      <c r="X11" t="s">
+        <v>91</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>91</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>92</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>91</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>93</v>
+      </c>
+      <c r="AC11" t="s">
         <v>98</v>
       </c>
-      <c r="W11" t="s">
+      <c r="AD11" t="s">
         <v>99</v>
       </c>
-      <c r="X11" t="s">
-        <v>91</v>
-      </c>
-      <c r="Y11" t="s">
-        <v>91</v>
-      </c>
-      <c r="Z11" t="s">
-        <v>92</v>
-      </c>
-      <c r="AA11" t="s">
-        <v>91</v>
-      </c>
-      <c r="AB11" t="s">
-        <v>93</v>
-      </c>
-      <c r="AC11" t="s">
+      <c r="AE11" t="s">
+        <v>91</v>
+      </c>
+      <c r="AF11" t="s">
+        <v>91</v>
+      </c>
+      <c r="AG11" t="s">
+        <v>92</v>
+      </c>
+      <c r="AH11" t="s">
+        <v>91</v>
+      </c>
+      <c r="AI11" t="s">
+        <v>93</v>
+      </c>
+      <c r="AJ11" t="s">
         <v>100</v>
       </c>
-      <c r="AD11" t="s">
+      <c r="AK11" t="s">
         <v>101</v>
       </c>
-      <c r="AE11" t="s">
-        <v>91</v>
-      </c>
-      <c r="AF11" t="s">
-        <v>91</v>
-      </c>
-      <c r="AG11" t="s">
-        <v>92</v>
-      </c>
-      <c r="AH11" t="s">
-        <v>91</v>
-      </c>
-      <c r="AI11" t="s">
-        <v>93</v>
-      </c>
-      <c r="AJ11" t="s">
+      <c r="AL11" t="s">
+        <v>91</v>
+      </c>
+      <c r="AM11" t="s">
+        <v>91</v>
+      </c>
+      <c r="AN11" t="s">
+        <v>92</v>
+      </c>
+      <c r="AO11" t="s">
+        <v>91</v>
+      </c>
+      <c r="AP11" t="s">
+        <v>93</v>
+      </c>
+      <c r="AQ11" t="s">
         <v>102</v>
       </c>
-      <c r="AK11" t="s">
+      <c r="AR11" t="s">
         <v>103</v>
       </c>
-      <c r="AL11" t="s">
-        <v>91</v>
-      </c>
-      <c r="AM11" t="s">
-        <v>91</v>
-      </c>
-      <c r="AN11" t="s">
-        <v>92</v>
-      </c>
-      <c r="AO11" t="s">
-        <v>91</v>
-      </c>
-      <c r="AP11" t="s">
-        <v>93</v>
-      </c>
-      <c r="AQ11" t="s">
+      <c r="AS11" t="s">
+        <v>91</v>
+      </c>
+      <c r="AT11" t="s">
+        <v>91</v>
+      </c>
+      <c r="AU11" t="s">
+        <v>92</v>
+      </c>
+      <c r="AV11" t="s">
+        <v>91</v>
+      </c>
+      <c r="AW11" t="s">
+        <v>93</v>
+      </c>
+      <c r="AX11" t="s">
         <v>104</v>
-      </c>
-      <c r="AR11" t="s">
-        <v>105</v>
-      </c>
-      <c r="AS11" t="s">
-        <v>106</v>
-      </c>
-      <c r="AT11" t="s">
-        <v>106</v>
-      </c>
-      <c r="AU11" t="s">
-        <v>107</v>
-      </c>
-      <c r="AV11" t="s">
-        <v>108</v>
-      </c>
-      <c r="AW11" t="s">
-        <v>93</v>
-      </c>
-      <c r="AX11" t="s">
-        <v>109</v>
       </c>
       <c r="AY11" t="s">
         <v>105</v>
@@ -3826,43 +3829,43 @@
         <v>93</v>
       </c>
       <c r="BE11" t="s">
+        <v>109</v>
+      </c>
+      <c r="BF11" t="s">
+        <v>105</v>
+      </c>
+      <c r="BG11" t="s">
+        <v>106</v>
+      </c>
+      <c r="BH11" t="s">
+        <v>106</v>
+      </c>
+      <c r="BI11" t="s">
+        <v>107</v>
+      </c>
+      <c r="BJ11" t="s">
+        <v>108</v>
+      </c>
+      <c r="BK11" t="s">
+        <v>93</v>
+      </c>
+      <c r="BL11" t="s">
         <v>110</v>
       </c>
-      <c r="BF11" t="s">
+      <c r="BM11" t="s">
         <v>111</v>
       </c>
-      <c r="BG11" t="s">
-        <v>91</v>
-      </c>
-      <c r="BH11" t="s">
-        <v>91</v>
-      </c>
-      <c r="BI11" t="s">
-        <v>92</v>
-      </c>
-      <c r="BJ11" t="s">
-        <v>91</v>
-      </c>
-      <c r="BK11" t="s">
-        <v>93</v>
-      </c>
-      <c r="BL11" t="s">
-        <v>112</v>
-      </c>
-      <c r="BM11" t="s">
-        <v>113</v>
-      </c>
       <c r="BN11" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="BO11" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="BP11" t="s">
         <v>92</v>
       </c>
       <c r="BQ11" t="s">
-        <v>108</v>
+        <v>91</v>
       </c>
       <c r="BR11" t="s">
         <v>93</v>
